--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3482</v>
+        <v>2625</v>
       </c>
       <c r="C3" s="3">
-        <v>7907</v>
+        <v>15600</v>
       </c>
       <c r="D3" s="3">
-        <v>15300</v>
+        <v>26300</v>
       </c>
       <c r="E3" s="3">
-        <v>28100</v>
+        <v>43100</v>
       </c>
       <c r="F3" s="3">
-        <v>38300</v>
+        <v>51700</v>
       </c>
       <c r="G3" s="3">
-        <v>49200</v>
+        <v>48700</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>456.13056</v>
+        <v>343.932928</v>
       </c>
       <c r="C4" s="4">
-        <v>1035.993088</v>
+        <v>2048.917504</v>
       </c>
       <c r="D4" s="4">
-        <v>2002.78016</v>
+        <v>3441.426432</v>
       </c>
       <c r="E4" s="4">
-        <v>3677.356032</v>
+        <v>5650.776064</v>
       </c>
       <c r="F4" s="4">
-        <v>5017.43616</v>
+        <v>6774.849536</v>
       </c>
       <c r="G4" s="4">
-        <v>6448.7424</v>
+        <v>6381.633536</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>285.15</v>
+        <v>378.98</v>
       </c>
       <c r="C5" s="4">
-        <v>247.61</v>
+        <v>124.27</v>
       </c>
       <c r="D5" s="4">
-        <v>249.76</v>
+        <v>149.87</v>
       </c>
       <c r="E5" s="4">
-        <v>271.2</v>
+        <v>179.89</v>
       </c>
       <c r="F5" s="4">
-        <v>405.86</v>
+        <v>304.63</v>
       </c>
       <c r="G5" s="4">
-        <v>639.09</v>
+        <v>646.0599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="C6" s="4">
-        <v>586</v>
+        <v>215</v>
       </c>
       <c r="D6" s="4">
-        <v>478</v>
+        <v>318</v>
       </c>
       <c r="E6" s="4">
-        <v>519</v>
+        <v>343</v>
       </c>
       <c r="F6" s="4">
-        <v>742</v>
+        <v>627</v>
       </c>
       <c r="G6" s="4">
-        <v>1483</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="C7" s="4">
-        <v>644</v>
+        <v>243</v>
       </c>
       <c r="D7" s="4">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E7" s="4">
-        <v>652</v>
+        <v>396</v>
       </c>
       <c r="F7" s="4">
-        <v>889</v>
+        <v>791</v>
       </c>
       <c r="G7" s="4">
-        <v>2057</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="C12" s="3">
-        <v>32600</v>
+        <v>33100</v>
       </c>
       <c r="D12" s="3">
-        <v>69800</v>
+        <v>65300</v>
       </c>
       <c r="E12" s="3">
-        <v>170000</v>
+        <v>191000</v>
       </c>
       <c r="F12" s="3">
-        <v>308000</v>
+        <v>322000</v>
       </c>
       <c r="G12" s="3">
-        <v>312000</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>65.6408576</v>
+        <v>67.52829440000001</v>
       </c>
       <c r="C13" s="4">
-        <v>133.169152</v>
+        <v>135.266304</v>
       </c>
       <c r="D13" s="4">
-        <v>286.261248</v>
+        <v>267.38688</v>
       </c>
       <c r="E13" s="4">
-        <v>695.205888</v>
+        <v>780.140544</v>
       </c>
       <c r="F13" s="4">
-        <v>1261.436928</v>
+        <v>1319.108608</v>
       </c>
       <c r="G13" s="4">
-        <v>1279.26272</v>
+        <v>1251.999744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>61.59657</v>
+        <v>59.91373</v>
       </c>
       <c r="C14" s="4">
-        <v>60.51818</v>
+        <v>59.41616</v>
       </c>
       <c r="D14" s="4">
-        <v>56.42345</v>
+        <v>60.19107</v>
       </c>
       <c r="E14" s="4">
-        <v>46.28016</v>
+        <v>41.41822000000001</v>
       </c>
       <c r="F14" s="4">
-        <v>51.33878</v>
+        <v>49.1736</v>
       </c>
       <c r="G14" s="4">
-        <v>101.7794</v>
+        <v>103.90328</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
+        <v>116.224</v>
+      </c>
+      <c r="C15" s="4">
         <v>118.272</v>
-      </c>
-      <c r="C15" s="4">
-        <v>120.32</v>
       </c>
       <c r="D15" s="4">
         <v>118.272</v>
       </c>
       <c r="E15" s="4">
-        <v>110.08</v>
+        <v>102.912</v>
       </c>
       <c r="F15" s="4">
-        <v>136.192</v>
+        <v>124.416</v>
       </c>
       <c r="G15" s="4">
-        <v>292.864</v>
+        <v>309.248</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>146.432</v>
+        <v>152.576</v>
       </c>
       <c r="C16" s="4">
-        <v>148.48</v>
+        <v>144.384</v>
       </c>
       <c r="D16" s="4">
         <v>144.384</v>
       </c>
       <c r="E16" s="4">
-        <v>146.432</v>
+        <v>136.192</v>
       </c>
       <c r="F16" s="4">
-        <v>191.488</v>
+        <v>183.296</v>
       </c>
       <c r="G16" s="4">
-        <v>452.608</v>
+        <v>473.088</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>2443</v>
+        <v>4248</v>
       </c>
       <c r="C21" s="3">
-        <v>7907</v>
+        <v>7314</v>
       </c>
       <c r="D21" s="3">
-        <v>16700</v>
+        <v>14600</v>
       </c>
       <c r="E21" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="F21" s="3">
         <v>21300</v>
       </c>
       <c r="G21" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>319.81568</v>
+        <v>556.793856</v>
       </c>
       <c r="C22" s="4">
-        <v>1035.993088</v>
+        <v>958.398464</v>
       </c>
       <c r="D22" s="4">
-        <v>2191.52384</v>
+        <v>1910.505472</v>
       </c>
       <c r="E22" s="4">
-        <v>2402.287616</v>
+        <v>2451.570688</v>
       </c>
       <c r="F22" s="4">
-        <v>2796.552192</v>
+        <v>2792.357888</v>
       </c>
       <c r="G22" s="4">
-        <v>2909.7984</v>
+        <v>3009.41312</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>359.01</v>
+        <v>190.85</v>
       </c>
       <c r="C23" s="4">
-        <v>188</v>
+        <v>199.88</v>
       </c>
       <c r="D23" s="4">
-        <v>100.9</v>
+        <v>140.04</v>
       </c>
       <c r="E23" s="4">
-        <v>155.57</v>
+        <v>165.59</v>
       </c>
       <c r="F23" s="4">
-        <v>221.6</v>
+        <v>229.43</v>
       </c>
       <c r="G23" s="4">
-        <v>386.93</v>
+        <v>362.27</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -832,19 +832,19 @@
         <v>449</v>
       </c>
       <c r="C24" s="4">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="D24" s="4">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="E24" s="4">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F24" s="4">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="G24" s="4">
-        <v>660</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="C25" s="4">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="D25" s="4">
-        <v>486</v>
+        <v>343</v>
       </c>
       <c r="E25" s="4">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="F25" s="4">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="G25" s="4">
-        <v>1057</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>106000</v>
+        <v>45300</v>
       </c>
       <c r="C30" s="3">
-        <v>150000</v>
+        <v>203000</v>
       </c>
       <c r="D30" s="3">
-        <v>282000</v>
+        <v>275000</v>
       </c>
       <c r="E30" s="3">
-        <v>358000</v>
+        <v>374000</v>
       </c>
       <c r="F30" s="3">
-        <v>433000</v>
+        <v>425000</v>
       </c>
       <c r="G30" s="3">
-        <v>517000</v>
+        <v>521000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,41 +929,41 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>433.061888</v>
+        <v>185.597952</v>
       </c>
       <c r="C31" s="4">
-        <v>612.368384</v>
+        <v>831.520768</v>
       </c>
       <c r="D31" s="4">
-        <v>1156.579328</v>
+        <v>1125.122048</v>
       </c>
       <c r="E31" s="4">
-        <v>1466.957824</v>
+        <v>1531.969536</v>
       </c>
       <c r="F31" s="4">
-        <v>1772.09344</v>
+        <v>1738.539008</v>
       </c>
       <c r="G31" s="4">
-        <v>2117.074944</v>
+        <v>2134.900736</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4">
-        <v>10.71</v>
-      </c>
+      <c r="B32" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4">
-        <v>13.91</v>
+        <v>12.36</v>
       </c>
       <c r="F32" s="4">
-        <v>19.25</v>
+        <v>19.73</v>
       </c>
       <c r="G32" s="4">
-        <v>27.68</v>
+        <v>27.25</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -971,22 +971,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>12.224</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4">
-        <v>16</v>
+        <v>9.536</v>
       </c>
       <c r="D33" s="4">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E33" s="4">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4">
+        <v>53</v>
+      </c>
+      <c r="G33" s="4">
         <v>45</v>
-      </c>
-      <c r="F33" s="4">
-        <v>49</v>
-      </c>
-      <c r="G33" s="4">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -994,22 +994,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>14.272</v>
+        <v>77</v>
       </c>
       <c r="C34" s="4">
-        <v>42</v>
+        <v>10.816</v>
       </c>
       <c r="D34" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E34" s="4">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F34" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G34" s="4">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1048,22 +1048,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>11100</v>
+        <v>9570</v>
       </c>
       <c r="C39" s="3">
-        <v>18800</v>
+        <v>16700</v>
       </c>
       <c r="D39" s="3">
-        <v>26400</v>
+        <v>39400</v>
       </c>
       <c r="E39" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="F39" s="3">
-        <v>35500</v>
+        <v>29200</v>
       </c>
       <c r="G39" s="3">
-        <v>36200</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1071,22 +1071,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1458.569216</v>
+        <v>1254.096896</v>
       </c>
       <c r="C40" s="4">
-        <v>2463.105024</v>
+        <v>2182.086656</v>
       </c>
       <c r="D40" s="4">
-        <v>3463.446528</v>
+        <v>5162.139648</v>
       </c>
       <c r="E40" s="4">
-        <v>3702.521856</v>
+        <v>3578.789888</v>
       </c>
       <c r="F40" s="4">
-        <v>4648.337408</v>
+        <v>3828.350976</v>
       </c>
       <c r="G40" s="4">
-        <v>4751.097856</v>
+        <v>3661.627392</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1094,22 +1094,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>89.12</v>
+        <v>102.87</v>
       </c>
       <c r="C41" s="4">
-        <v>97.37</v>
+        <v>107.62</v>
       </c>
       <c r="D41" s="4">
-        <v>147.8</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="E41" s="4">
-        <v>275.2</v>
+        <v>287.17</v>
       </c>
       <c r="F41" s="4">
-        <v>413.59</v>
+        <v>530.01</v>
       </c>
       <c r="G41" s="4">
-        <v>816.3200000000001</v>
+        <v>1107.29</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1117,22 +1117,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C42" s="4">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D42" s="4">
-        <v>424</v>
+        <v>302</v>
       </c>
       <c r="E42" s="4">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="F42" s="4">
-        <v>1057</v>
+        <v>1287</v>
       </c>
       <c r="G42" s="4">
-        <v>2212</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1140,22 +1140,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C43" s="4">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="D43" s="4">
-        <v>529</v>
+        <v>359</v>
       </c>
       <c r="E43" s="4">
         <v>1057</v>
       </c>
       <c r="F43" s="4">
-        <v>1270</v>
+        <v>1418</v>
       </c>
       <c r="G43" s="4">
-        <v>2966</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1194,22 +1194,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>443000</v>
+        <v>405000</v>
       </c>
       <c r="C48" s="3">
-        <v>630000</v>
+        <v>669000</v>
       </c>
       <c r="D48" s="3">
-        <v>964000</v>
+        <v>1049000</v>
       </c>
       <c r="E48" s="3">
-        <v>923000</v>
+        <v>857000</v>
       </c>
       <c r="F48" s="3">
-        <v>1028000</v>
+        <v>802000</v>
       </c>
       <c r="G48" s="3">
-        <v>1001000</v>
+        <v>791000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1217,22 +1217,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>1814.03648</v>
+        <v>1656.75008</v>
       </c>
       <c r="C49" s="4">
-        <v>2581.594112</v>
+        <v>2738.880512</v>
       </c>
       <c r="D49" s="4">
-        <v>3947.88864</v>
+        <v>4294.967296</v>
       </c>
       <c r="E49" s="4">
-        <v>3781.165056</v>
+        <v>3508.535296</v>
       </c>
       <c r="F49" s="4">
-        <v>4211.081216</v>
+        <v>3283.091456</v>
       </c>
       <c r="G49" s="4">
-        <v>4097.835008</v>
+        <v>3241.148416</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1240,22 +1240,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>2.01945</v>
+        <v>2.25164</v>
       </c>
       <c r="C50" s="4">
-        <v>2.72601</v>
+        <v>2.76331</v>
       </c>
       <c r="D50" s="4">
-        <v>3.83673</v>
+        <v>3.56805</v>
       </c>
       <c r="E50" s="4">
-        <v>7.88434</v>
+        <v>8.666729999999999</v>
       </c>
       <c r="F50" s="4">
-        <v>14.54642</v>
+        <v>18.93058</v>
       </c>
       <c r="G50" s="4">
-        <v>29.1124</v>
+        <v>39.18757</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1263,22 +1263,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>2.096</v>
+        <v>1.944</v>
       </c>
       <c r="C51" s="4">
-        <v>1.928</v>
+        <v>1.992</v>
       </c>
       <c r="D51" s="4">
-        <v>1.992</v>
+        <v>0.716</v>
       </c>
       <c r="E51" s="4">
+        <v>2.992</v>
+      </c>
+      <c r="F51" s="4">
         <v>3.088</v>
       </c>
-      <c r="F51" s="4">
-        <v>2.512</v>
-      </c>
       <c r="G51" s="4">
-        <v>2.736</v>
+        <v>2.832</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1286,22 +1286,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>61.696</v>
+        <v>63.232</v>
       </c>
       <c r="C52" s="4">
-        <v>81.408</v>
+        <v>87.55200000000001</v>
       </c>
       <c r="D52" s="4">
-        <v>162.816</v>
+        <v>152.576</v>
       </c>
       <c r="E52" s="4">
-        <v>261.12</v>
+        <v>329.728</v>
       </c>
       <c r="F52" s="4">
-        <v>806.912</v>
+        <v>1089.536</v>
       </c>
       <c r="G52" s="4">
-        <v>1581.056</v>
+        <v>2408.448</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>2708</v>
+        <v>2301</v>
       </c>
       <c r="C57" s="3">
-        <v>4785</v>
+        <v>4697</v>
       </c>
       <c r="D57" s="3">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="E57" s="3">
-        <v>12300</v>
+        <v>14400</v>
       </c>
       <c r="F57" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="G57" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>355.467264</v>
+        <v>301.989888</v>
       </c>
       <c r="C58" s="4">
-        <v>627.048448</v>
+        <v>615.514112</v>
       </c>
       <c r="D58" s="4">
-        <v>1772.09344</v>
+        <v>1315.96288</v>
       </c>
       <c r="E58" s="4">
-        <v>1612.709888</v>
+        <v>1887.4368</v>
       </c>
       <c r="F58" s="4">
-        <v>2041.577472</v>
+        <v>2092.957696</v>
       </c>
       <c r="G58" s="4">
-        <v>2127.560704</v>
+        <v>2154.82368</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>302.25</v>
+        <v>369.24</v>
       </c>
       <c r="C59" s="4">
-        <v>304.47</v>
+        <v>307.6</v>
       </c>
       <c r="D59" s="4">
-        <v>91.20999999999999</v>
+        <v>184.79</v>
       </c>
       <c r="E59" s="4">
-        <v>237.45</v>
+        <v>154.42</v>
       </c>
       <c r="F59" s="4">
-        <v>173.48</v>
+        <v>184.24</v>
       </c>
       <c r="G59" s="4">
-        <v>389.34</v>
+        <v>359.47</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="C60" s="4">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D60" s="4">
-        <v>167</v>
+        <v>347</v>
       </c>
       <c r="E60" s="4">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="F60" s="4">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="G60" s="4">
-        <v>701</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="C61" s="4">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D61" s="4">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="E61" s="4">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="F61" s="4">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="G61" s="4">
-        <v>906</v>
+        <v>701</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1486,22 +1486,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>63600</v>
+        <v>67000</v>
       </c>
       <c r="C66" s="3">
-        <v>134000</v>
+        <v>169000</v>
       </c>
       <c r="D66" s="3">
-        <v>246000</v>
+        <v>248000</v>
       </c>
       <c r="E66" s="3">
-        <v>315000</v>
+        <v>310000</v>
       </c>
       <c r="F66" s="3">
-        <v>360000</v>
+        <v>388000</v>
       </c>
       <c r="G66" s="3">
-        <v>450000</v>
+        <v>449000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1509,22 +1509,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>261.095424</v>
+        <v>278.921216</v>
       </c>
       <c r="C67" s="4">
-        <v>550.5024</v>
+        <v>693.108736</v>
       </c>
       <c r="D67" s="4">
-        <v>1008.730112</v>
+        <v>1017.11872</v>
       </c>
       <c r="E67" s="4">
-        <v>1288.699904</v>
+        <v>1270.874112</v>
       </c>
       <c r="F67" s="4">
-        <v>1473.24928</v>
+        <v>1589.641216</v>
       </c>
       <c r="G67" s="4">
-        <v>1844.445184</v>
+        <v>1840.25088</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1532,22 +1532,18 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>13.37</v>
-      </c>
-      <c r="C68" s="4">
-        <v>11.02</v>
-      </c>
-      <c r="D68" s="4">
-        <v>10.21</v>
-      </c>
+        <v>12.32</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="4">
-        <v>12.87</v>
+        <v>13.09</v>
       </c>
       <c r="F68" s="4">
-        <v>18.61</v>
+        <v>15.39</v>
       </c>
       <c r="G68" s="4">
-        <v>27.09</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1555,22 +1551,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
+        <v>34</v>
+      </c>
+      <c r="C69" s="4">
+        <v>21</v>
+      </c>
+      <c r="D69" s="4">
+        <v>23</v>
+      </c>
+      <c r="E69" s="4">
         <v>39</v>
       </c>
-      <c r="C69" s="4">
-        <v>28</v>
-      </c>
-      <c r="D69" s="4">
-        <v>18</v>
-      </c>
-      <c r="E69" s="4">
-        <v>31.616</v>
-      </c>
       <c r="F69" s="4">
-        <v>50</v>
+        <v>28.544</v>
       </c>
       <c r="G69" s="4">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1578,22 +1574,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C70" s="4">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D70" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E70" s="4">
-        <v>48.896</v>
+        <v>58</v>
       </c>
       <c r="F70" s="4">
-        <v>80</v>
+        <v>43.776</v>
       </c>
       <c r="G70" s="4">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>2625</v>
+        <v>8393</v>
       </c>
       <c r="C3" s="3">
-        <v>15600</v>
+        <v>16400</v>
       </c>
       <c r="D3" s="3">
-        <v>26300</v>
+        <v>29700</v>
       </c>
       <c r="E3" s="3">
-        <v>43100</v>
+        <v>43800</v>
       </c>
       <c r="F3" s="3">
         <v>51700</v>
       </c>
       <c r="G3" s="3">
-        <v>48700</v>
+        <v>52100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>343.932928</v>
+        <v>1099.956224</v>
       </c>
       <c r="C4" s="4">
-        <v>2048.917504</v>
+        <v>2147.483648</v>
       </c>
       <c r="D4" s="4">
-        <v>3441.426432</v>
+        <v>3890.21696</v>
       </c>
       <c r="E4" s="4">
-        <v>5650.776064</v>
+        <v>5742.002176</v>
       </c>
       <c r="F4" s="4">
         <v>6774.849536</v>
       </c>
       <c r="G4" s="4">
-        <v>6381.633536</v>
+        <v>6828.326912</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>378.98</v>
+        <v>118.36</v>
       </c>
       <c r="C5" s="4">
-        <v>124.27</v>
+        <v>118.87</v>
       </c>
       <c r="D5" s="4">
-        <v>149.87</v>
+        <v>131.46</v>
       </c>
       <c r="E5" s="4">
-        <v>179.89</v>
+        <v>178.7</v>
       </c>
       <c r="F5" s="4">
-        <v>304.63</v>
+        <v>304.78</v>
       </c>
       <c r="G5" s="4">
-        <v>646.0599999999999</v>
+        <v>604.4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>644</v>
+        <v>206</v>
       </c>
       <c r="C6" s="4">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D6" s="4">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="E6" s="4">
         <v>343</v>
       </c>
       <c r="F6" s="4">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="G6" s="4">
-        <v>1516</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>668</v>
+        <v>265</v>
       </c>
       <c r="C7" s="4">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D7" s="4">
-        <v>586</v>
+        <v>253</v>
       </c>
       <c r="E7" s="4">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F7" s="4">
         <v>791</v>
       </c>
       <c r="G7" s="4">
-        <v>2147</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>16500</v>
+        <v>23100</v>
       </c>
       <c r="C12" s="3">
-        <v>33100</v>
+        <v>55200</v>
       </c>
       <c r="D12" s="3">
-        <v>65300</v>
+        <v>118000</v>
       </c>
       <c r="E12" s="3">
-        <v>191000</v>
+        <v>221000</v>
       </c>
       <c r="F12" s="3">
-        <v>322000</v>
+        <v>317000</v>
       </c>
       <c r="G12" s="3">
-        <v>306000</v>
+        <v>319000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>67.52829440000001</v>
+        <v>94.6864128</v>
       </c>
       <c r="C13" s="4">
-        <v>135.266304</v>
+        <v>226.492416</v>
       </c>
       <c r="D13" s="4">
-        <v>267.38688</v>
+        <v>481.296384</v>
       </c>
       <c r="E13" s="4">
-        <v>780.140544</v>
+        <v>903.872512</v>
       </c>
       <c r="F13" s="4">
-        <v>1319.108608</v>
+        <v>1299.185664</v>
       </c>
       <c r="G13" s="4">
-        <v>1251.999744</v>
+        <v>1304.428544</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>59.91373</v>
+        <v>42.96025</v>
       </c>
       <c r="C14" s="4">
-        <v>59.41616</v>
+        <v>35.69687</v>
       </c>
       <c r="D14" s="4">
-        <v>60.19107</v>
+        <v>33.51166000000001</v>
       </c>
       <c r="E14" s="4">
-        <v>41.41822000000001</v>
+        <v>35.71396</v>
       </c>
       <c r="F14" s="4">
-        <v>49.1736</v>
+        <v>49.86084</v>
       </c>
       <c r="G14" s="4">
-        <v>103.90328</v>
+        <v>99.79921</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>116.224</v>
+        <v>98.816</v>
       </c>
       <c r="C15" s="4">
-        <v>118.272</v>
+        <v>72.19200000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>118.272</v>
+        <v>76.288</v>
       </c>
       <c r="E15" s="4">
-        <v>102.912</v>
+        <v>90.624</v>
       </c>
       <c r="F15" s="4">
-        <v>124.416</v>
+        <v>125.44</v>
       </c>
       <c r="G15" s="4">
-        <v>309.248</v>
+        <v>292.864</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>152.576</v>
+        <v>118.272</v>
       </c>
       <c r="C16" s="4">
-        <v>144.384</v>
+        <v>94.72</v>
       </c>
       <c r="D16" s="4">
-        <v>144.384</v>
+        <v>100.864</v>
       </c>
       <c r="E16" s="4">
-        <v>136.192</v>
+        <v>129.536</v>
       </c>
       <c r="F16" s="4">
-        <v>183.296</v>
+        <v>185.344</v>
       </c>
       <c r="G16" s="4">
-        <v>473.088</v>
+        <v>415.744</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>4248</v>
+        <v>10600</v>
       </c>
       <c r="C21" s="3">
-        <v>7314</v>
+        <v>14100</v>
       </c>
       <c r="D21" s="3">
-        <v>14600</v>
+        <v>13200</v>
       </c>
       <c r="E21" s="3">
-        <v>18700</v>
+        <v>16100</v>
       </c>
       <c r="F21" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="G21" s="3">
-        <v>22000</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>556.793856</v>
+        <v>1384.12032</v>
       </c>
       <c r="C22" s="4">
-        <v>958.398464</v>
+        <v>1851.785216</v>
       </c>
       <c r="D22" s="4">
-        <v>1910.505472</v>
+        <v>1725.956096</v>
       </c>
       <c r="E22" s="4">
-        <v>2451.570688</v>
+        <v>2109.734912</v>
       </c>
       <c r="F22" s="4">
-        <v>2792.357888</v>
+        <v>2759.852032</v>
       </c>
       <c r="G22" s="4">
-        <v>3009.41312</v>
+        <v>2984.247296</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>190.85</v>
+        <v>58.78</v>
       </c>
       <c r="C23" s="4">
-        <v>199.88</v>
+        <v>64.19</v>
       </c>
       <c r="D23" s="4">
-        <v>140.04</v>
+        <v>166.81</v>
       </c>
       <c r="E23" s="4">
-        <v>165.59</v>
+        <v>229.85</v>
       </c>
       <c r="F23" s="4">
-        <v>229.43</v>
+        <v>229.91</v>
       </c>
       <c r="G23" s="4">
-        <v>362.27</v>
+        <v>357.08</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>449</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4">
-        <v>416</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="E24" s="4">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F24" s="4">
         <v>478</v>
       </c>
       <c r="G24" s="4">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,19 +852,19 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>578</v>
+        <v>151</v>
       </c>
       <c r="C25" s="4">
-        <v>529</v>
+        <v>145</v>
       </c>
       <c r="D25" s="4">
-        <v>343</v>
+        <v>486</v>
       </c>
       <c r="E25" s="4">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F25" s="4">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="G25" s="4">
         <v>775</v>
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>45300</v>
+        <v>115000</v>
       </c>
       <c r="C30" s="3">
-        <v>203000</v>
+        <v>207000</v>
       </c>
       <c r="D30" s="3">
-        <v>275000</v>
+        <v>284000</v>
       </c>
       <c r="E30" s="3">
-        <v>374000</v>
+        <v>394000</v>
       </c>
       <c r="F30" s="3">
-        <v>425000</v>
+        <v>406000</v>
       </c>
       <c r="G30" s="3">
-        <v>521000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,41 +929,39 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>185.597952</v>
+        <v>472.907776</v>
       </c>
       <c r="C31" s="4">
-        <v>831.520768</v>
+        <v>847.249408</v>
       </c>
       <c r="D31" s="4">
-        <v>1125.122048</v>
+        <v>1161.822208</v>
       </c>
       <c r="E31" s="4">
-        <v>1531.969536</v>
+        <v>1614.80704</v>
       </c>
       <c r="F31" s="4">
-        <v>1738.539008</v>
+        <v>1661.99296</v>
       </c>
       <c r="G31" s="4">
-        <v>2134.900736</v>
+        <v>1945.10848</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4">
-        <v>20.3</v>
-      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4">
-        <v>12.36</v>
+        <v>11.52</v>
       </c>
       <c r="F32" s="4">
-        <v>19.73</v>
+        <v>21.91</v>
       </c>
       <c r="G32" s="4">
-        <v>27.25</v>
+        <v>28.82</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -971,22 +969,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>41</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="C33" s="4">
-        <v>9.536</v>
+        <v>9.664</v>
       </c>
       <c r="D33" s="4">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E33" s="4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F33" s="4">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G33" s="4">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -994,22 +992,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>77</v>
+        <v>10.688</v>
       </c>
       <c r="C34" s="4">
-        <v>10.816</v>
+        <v>10.688</v>
       </c>
       <c r="D34" s="4">
         <v>44</v>
       </c>
       <c r="E34" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F34" s="4">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G34" s="4">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1048,22 +1046,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>9570</v>
+        <v>11900</v>
       </c>
       <c r="C39" s="3">
-        <v>16700</v>
+        <v>19500</v>
       </c>
       <c r="D39" s="3">
-        <v>39400</v>
+        <v>32300</v>
       </c>
       <c r="E39" s="3">
-        <v>27300</v>
+        <v>37800</v>
       </c>
       <c r="F39" s="3">
+        <v>29800</v>
+      </c>
+      <c r="G39" s="3">
         <v>29200</v>
-      </c>
-      <c r="G39" s="3">
-        <v>27900</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1071,22 +1069,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1254.096896</v>
+        <v>1560.281088</v>
       </c>
       <c r="C40" s="4">
-        <v>2182.086656</v>
+        <v>2556.428288</v>
       </c>
       <c r="D40" s="4">
-        <v>5162.139648</v>
+        <v>4226.809856</v>
       </c>
       <c r="E40" s="4">
-        <v>3578.789888</v>
+        <v>4948.230144</v>
       </c>
       <c r="F40" s="4">
+        <v>3911.18848</v>
+      </c>
+      <c r="G40" s="4">
         <v>3828.350976</v>
-      </c>
-      <c r="G40" s="4">
-        <v>3661.627392</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1094,22 +1092,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>102.87</v>
+        <v>83.08</v>
       </c>
       <c r="C41" s="4">
-        <v>107.62</v>
+        <v>95.27</v>
       </c>
       <c r="D41" s="4">
-        <v>97.18000000000001</v>
+        <v>119.51</v>
       </c>
       <c r="E41" s="4">
-        <v>287.17</v>
+        <v>205.08</v>
       </c>
       <c r="F41" s="4">
-        <v>530.01</v>
+        <v>486.75</v>
       </c>
       <c r="G41" s="4">
-        <v>1107.29</v>
+        <v>1000.64</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1117,22 +1115,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C42" s="4">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="D42" s="4">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="E42" s="4">
-        <v>889</v>
+        <v>603</v>
       </c>
       <c r="F42" s="4">
-        <v>1287</v>
+        <v>1450</v>
       </c>
       <c r="G42" s="4">
-        <v>3130</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1140,22 +1138,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C43" s="4">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="D43" s="4">
-        <v>359</v>
+        <v>469</v>
       </c>
       <c r="E43" s="4">
-        <v>1057</v>
+        <v>938</v>
       </c>
       <c r="F43" s="4">
-        <v>1418</v>
+        <v>1549</v>
       </c>
       <c r="G43" s="4">
-        <v>4047</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1194,22 +1192,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>405000</v>
+        <v>455000</v>
       </c>
       <c r="C48" s="3">
-        <v>669000</v>
+        <v>596000</v>
       </c>
       <c r="D48" s="3">
-        <v>1049000</v>
+        <v>1016000</v>
       </c>
       <c r="E48" s="3">
-        <v>857000</v>
+        <v>946000</v>
       </c>
       <c r="F48" s="3">
-        <v>802000</v>
+        <v>835000</v>
       </c>
       <c r="G48" s="3">
-        <v>791000</v>
+        <v>809000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1217,22 +1215,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>1656.75008</v>
+        <v>1864.368128</v>
       </c>
       <c r="C49" s="4">
-        <v>2738.880512</v>
+        <v>2440.036352</v>
       </c>
       <c r="D49" s="4">
-        <v>4294.967296</v>
+        <v>4161.798144</v>
       </c>
       <c r="E49" s="4">
-        <v>3508.535296</v>
+        <v>3876.585472</v>
       </c>
       <c r="F49" s="4">
-        <v>3283.091456</v>
+        <v>3419.406336</v>
       </c>
       <c r="G49" s="4">
-        <v>3241.148416</v>
+        <v>3313.50016</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1240,22 +1238,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>2.25164</v>
+        <v>2.0142</v>
       </c>
       <c r="C50" s="4">
-        <v>2.76331</v>
+        <v>2.81532</v>
       </c>
       <c r="D50" s="4">
-        <v>3.56805</v>
+        <v>3.72493</v>
       </c>
       <c r="E50" s="4">
-        <v>8.666729999999999</v>
+        <v>8.085430000000001</v>
       </c>
       <c r="F50" s="4">
-        <v>18.93058</v>
+        <v>18.98028</v>
       </c>
       <c r="G50" s="4">
-        <v>39.18757</v>
+        <v>38.58406</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1263,22 +1261,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
+        <v>1.864</v>
+      </c>
+      <c r="C51" s="4">
         <v>1.944</v>
       </c>
-      <c r="C51" s="4">
-        <v>1.992</v>
-      </c>
       <c r="D51" s="4">
-        <v>0.716</v>
+        <v>0.524</v>
       </c>
       <c r="E51" s="4">
-        <v>2.992</v>
+        <v>0.548</v>
       </c>
       <c r="F51" s="4">
-        <v>3.088</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G51" s="4">
-        <v>2.832</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1286,22 +1284,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>63.232</v>
+        <v>62.72</v>
       </c>
       <c r="C52" s="4">
-        <v>87.55200000000001</v>
+        <v>76.288</v>
       </c>
       <c r="D52" s="4">
-        <v>152.576</v>
+        <v>160.768</v>
       </c>
       <c r="E52" s="4">
-        <v>329.728</v>
+        <v>415.744</v>
       </c>
       <c r="F52" s="4">
-        <v>1089.536</v>
+        <v>1253.376</v>
       </c>
       <c r="G52" s="4">
-        <v>2408.448</v>
+        <v>2375.68</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1340,22 +1338,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>2301</v>
+        <v>8000</v>
       </c>
       <c r="C57" s="3">
-        <v>4697</v>
+        <v>11100</v>
       </c>
       <c r="D57" s="3">
-        <v>10000</v>
+        <v>14200</v>
       </c>
       <c r="E57" s="3">
-        <v>14400</v>
+        <v>15700</v>
       </c>
       <c r="F57" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="G57" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1363,22 +1361,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>301.989888</v>
+        <v>1048.576</v>
       </c>
       <c r="C58" s="4">
-        <v>615.514112</v>
+        <v>1451.229184</v>
       </c>
       <c r="D58" s="4">
-        <v>1315.96288</v>
+        <v>1864.368128</v>
       </c>
       <c r="E58" s="4">
-        <v>1887.4368</v>
+        <v>2053.111808</v>
       </c>
       <c r="F58" s="4">
-        <v>2092.957696</v>
+        <v>1988.100096</v>
       </c>
       <c r="G58" s="4">
-        <v>2154.82368</v>
+        <v>2207.25248</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1386,22 +1384,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>369.24</v>
+        <v>70.47</v>
       </c>
       <c r="C59" s="4">
-        <v>307.6</v>
+        <v>69.47</v>
       </c>
       <c r="D59" s="4">
-        <v>184.79</v>
+        <v>76.05</v>
       </c>
       <c r="E59" s="4">
-        <v>154.42</v>
+        <v>107.52</v>
       </c>
       <c r="F59" s="4">
-        <v>184.24</v>
+        <v>202.68</v>
       </c>
       <c r="G59" s="4">
-        <v>359.47</v>
+        <v>380.83</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1409,22 +1407,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="C60" s="4">
-        <v>412</v>
+        <v>86</v>
       </c>
       <c r="D60" s="4">
-        <v>347</v>
+        <v>96</v>
       </c>
       <c r="E60" s="4">
-        <v>371</v>
+        <v>135</v>
       </c>
       <c r="F60" s="4">
-        <v>265</v>
+        <v>392</v>
       </c>
       <c r="G60" s="4">
-        <v>486</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1432,22 +1430,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>461</v>
+        <v>126</v>
       </c>
       <c r="C61" s="4">
-        <v>441</v>
+        <v>99</v>
       </c>
       <c r="D61" s="4">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="E61" s="4">
-        <v>424</v>
+        <v>151</v>
       </c>
       <c r="F61" s="4">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="G61" s="4">
-        <v>701</v>
+        <v>889</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1486,22 +1484,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>67000</v>
+        <v>80300</v>
       </c>
       <c r="C66" s="3">
-        <v>169000</v>
+        <v>154000</v>
       </c>
       <c r="D66" s="3">
-        <v>248000</v>
+        <v>250000</v>
       </c>
       <c r="E66" s="3">
-        <v>310000</v>
+        <v>331000</v>
       </c>
       <c r="F66" s="3">
-        <v>388000</v>
+        <v>347000</v>
       </c>
       <c r="G66" s="3">
-        <v>449000</v>
+        <v>442000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1509,22 +1507,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>278.921216</v>
+        <v>329.252864</v>
       </c>
       <c r="C67" s="4">
-        <v>693.108736</v>
+        <v>630.194176</v>
       </c>
       <c r="D67" s="4">
-        <v>1017.11872</v>
+        <v>1022.3616</v>
       </c>
       <c r="E67" s="4">
-        <v>1270.874112</v>
+        <v>1357.90592</v>
       </c>
       <c r="F67" s="4">
-        <v>1589.641216</v>
+        <v>1420.82048</v>
       </c>
       <c r="G67" s="4">
-        <v>1840.25088</v>
+        <v>1808.7936</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1532,18 +1530,18 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>12.32</v>
+        <v>10.19</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4">
-        <v>13.09</v>
+        <v>11.47</v>
       </c>
       <c r="F68" s="4">
-        <v>15.39</v>
+        <v>20.03</v>
       </c>
       <c r="G68" s="4">
-        <v>28.45</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1551,22 +1549,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C69" s="4">
         <v>21</v>
       </c>
       <c r="D69" s="4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E69" s="4">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F69" s="4">
-        <v>28.544</v>
+        <v>55</v>
       </c>
       <c r="G69" s="4">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1574,22 +1572,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
+        <v>41</v>
+      </c>
+      <c r="C70" s="4">
+        <v>32</v>
+      </c>
+      <c r="D70" s="4">
+        <v>41</v>
+      </c>
+      <c r="E70" s="4">
         <v>43</v>
       </c>
-      <c r="C70" s="4">
-        <v>36</v>
-      </c>
-      <c r="D70" s="4">
-        <v>40</v>
-      </c>
-      <c r="E70" s="4">
-        <v>58</v>
-      </c>
       <c r="F70" s="4">
-        <v>43.776</v>
+        <v>89</v>
       </c>
       <c r="G70" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="busy" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="idle" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +447,31 @@
           <t>lat_p99(ns)</t>
         </is>
       </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>BW(MiB/s)</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>lat_avg(ns)</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>lat_p95(ns)</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>lat_p99(ns)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="C2" t="n">
@@ -492,6 +516,54 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -504,6 +576,16 @@
           <t>bs</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>workload</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>bs</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,6 +640,64 @@
       <c r="P4" t="n">
         <v/>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>randread</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
+        <v>353</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>598</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>904</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1096</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2820</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4785</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7228</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8770</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>353.99</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>408.7</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>401.6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>448.95</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v/>
+      </c>
+      <c r="AK4" t="n">
+        <v/>
+      </c>
+      <c r="AL4" t="n">
+        <v/>
+      </c>
+      <c r="AM4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
@@ -607,6 +747,59 @@
       <c r="P5" t="n">
         <v/>
       </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
+      </c>
+      <c r="AA5" t="n">
+        <v/>
+      </c>
+      <c r="AB5" t="n">
+        <v>6324</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6060.8</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11654.45</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15913.91</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>20952.55</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v/>
+      </c>
+      <c r="AK5" t="n">
+        <v/>
+      </c>
+      <c r="AL5" t="n">
+        <v/>
+      </c>
+      <c r="AM5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,6 +854,64 @@
       <c r="P6" t="n">
         <v/>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>randwrite</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>248</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>276</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>380</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>384</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1984</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2209</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3038</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3072</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>120.89</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>135.14</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>143.54</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>146.91</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v/>
+      </c>
+      <c r="AK6" t="n">
+        <v/>
+      </c>
+      <c r="AL6" t="n">
+        <v/>
+      </c>
+      <c r="AM6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -710,6 +961,59 @@
       <c r="P7" t="n">
         <v/>
       </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>224</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>241</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>337</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>346</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>61</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>88</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>62023</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v/>
+      </c>
+      <c r="AK7" t="n">
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v/>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -764,6 +1068,64 @@
       <c r="P8" t="n">
         <v/>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>590</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1008</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1567</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1701</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4718</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8062</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>210.51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>237.21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>234.59</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>285.85</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
@@ -813,6 +1175,59 @@
       <c r="P9" t="n">
         <v/>
       </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>4k</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>771</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1261</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1673</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>197000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>323000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>352000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>428000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>4941.22</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5796.81</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8140.49</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>8991.09</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -867,6 +1282,64 @@
       <c r="P10" t="n">
         <v/>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>128k</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>382</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>828</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1043</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1161</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3056</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6627</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8347</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>9287</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>92.89</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>94.84999999999999</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>101.19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>107.18</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v/>
+      </c>
+      <c r="AM10" t="n">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -916,572 +1389,57 @@
       <c r="P11" t="n">
         <v>33536</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>BW(MiB/s)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>lat_avg(ns)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>lat_p95(ns)</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>lat_p99(ns)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>workload</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bs</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>randread</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>353</v>
-      </c>
-      <c r="D4" t="n">
-        <v>598</v>
-      </c>
-      <c r="E4" t="n">
-        <v>904</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1096</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2820</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4785</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7228</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8770</v>
-      </c>
-      <c r="K4" t="n">
-        <v>353.99</v>
-      </c>
-      <c r="L4" t="n">
-        <v>408.7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>401.6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>448.95</v>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4k</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
-      <c r="E5" t="n">
-        <v/>
-      </c>
-      <c r="F5" t="n">
-        <v/>
-      </c>
-      <c r="G5" t="n">
-        <v>6324</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>22</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6060.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>11654.45</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15913.91</v>
-      </c>
-      <c r="N5" t="n">
-        <v>20952.55</v>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>randwrite</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>248</v>
-      </c>
-      <c r="D6" t="n">
-        <v>276</v>
-      </c>
-      <c r="E6" t="n">
-        <v>380</v>
-      </c>
-      <c r="F6" t="n">
-        <v>384</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1984</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2209</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3038</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K6" t="n">
-        <v>120.89</v>
-      </c>
-      <c r="L6" t="n">
-        <v>135.14</v>
-      </c>
-      <c r="M6" t="n">
-        <v>143.54</v>
-      </c>
-      <c r="N6" t="n">
-        <v>146.91</v>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>224</v>
-      </c>
-      <c r="D7" t="n">
-        <v>241</v>
-      </c>
-      <c r="E7" t="n">
-        <v>337</v>
-      </c>
-      <c r="F7" t="n">
-        <v>346</v>
-      </c>
-      <c r="G7" t="n">
-        <v>57</v>
-      </c>
-      <c r="H7" t="n">
-        <v>61</v>
-      </c>
-      <c r="I7" t="n">
-        <v>86</v>
-      </c>
-      <c r="J7" t="n">
-        <v>88</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>62023</v>
-      </c>
-      <c r="M7" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>590</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1008</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1567</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1701</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4718</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8062</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>13</v>
-      </c>
-      <c r="K8" t="n">
-        <v>210.51</v>
-      </c>
-      <c r="L8" t="n">
-        <v>237.21</v>
-      </c>
-      <c r="M8" t="n">
-        <v>234.59</v>
-      </c>
-      <c r="N8" t="n">
-        <v>285.85</v>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="R8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>771</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1261</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1376</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1673</v>
-      </c>
-      <c r="G9" t="n">
-        <v>197000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>323000</v>
-      </c>
-      <c r="I9" t="n">
-        <v>352000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>428000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4941.22</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5796.81</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8140.49</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8991.09</v>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="R9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>128k</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>382</v>
-      </c>
-      <c r="D10" t="n">
-        <v>828</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1043</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1161</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3056</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6627</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8347</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9287</v>
-      </c>
-      <c r="K10" t="n">
-        <v>92.89</v>
-      </c>
-      <c r="L10" t="n">
-        <v>94.84999999999999</v>
-      </c>
-      <c r="M10" t="n">
-        <v>101.19</v>
-      </c>
-      <c r="N10" t="n">
-        <v>107.18</v>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="R10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4k</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="X11" t="n">
         <v>258</v>
       </c>
-      <c r="D11" t="n">
+      <c r="Y11" t="n">
         <v>473</v>
       </c>
-      <c r="E11" t="n">
+      <c r="Z11" t="n">
         <v>661</v>
       </c>
-      <c r="F11" t="n">
+      <c r="AA11" t="n">
         <v>783</v>
       </c>
-      <c r="G11" t="n">
+      <c r="AB11" t="n">
         <v>66</v>
       </c>
-      <c r="H11" t="n">
+      <c r="AC11" t="n">
         <v>121000</v>
       </c>
-      <c r="I11" t="n">
+      <c r="AD11" t="n">
         <v>169000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="AE11" t="n">
         <v>200000</v>
       </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AJ11" t="n">
         <v>11584</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AK11" t="n">
         <v>14144</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AL11" t="n">
         <v>13504</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AM11" t="n">
         <v>17024</v>
       </c>
     </row>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -442,18 +442,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randread_4k</t>
+          <t>8,10,12,14_randread_4k</t>
         </is>
       </c>
     </row>
@@ -478,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6247</v>
+        <v>6324</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12900</v>
+        <v>11800</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>17700</v>
+        <v>16900</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23500</v>
+        <v>22300</v>
       </c>
     </row>
     <row r="4">
@@ -497,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>52.9</v>
+        <v>48.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>72.40000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>96.2</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -516,22 +523,22 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>159.6543</v>
+        <v>157.71748</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>153.38775</v>
+        <v>169.04784</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>168.73814</v>
+        <v>175.80612</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>169.44949</v>
+        <v>177.18539</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randread_128k</t>
+          <t>8,10,12,14_randread_128k</t>
         </is>
       </c>
     </row>
@@ -556,16 +563,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>4266</v>
+        <v>2820</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>7236</v>
+        <v>4785</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>12800</v>
+        <v>7228</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>11800</v>
+        <v>8770</v>
       </c>
     </row>
     <row r="12">
@@ -575,16 +582,16 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>559</v>
+        <v>370</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>949</v>
+        <v>627</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1678</v>
+        <v>947</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1543</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="13">
@@ -594,22 +601,22 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>233.29</v>
+        <v>353.96</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>270.66</v>
+        <v>408.66</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>222.53</v>
+        <v>401.57</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>330.77</v>
+        <v>448.9</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randwrite_4k</t>
+          <t>8,10,12,14_randwrite_4k</t>
         </is>
       </c>
     </row>
@@ -634,16 +641,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>19600</v>
+        <v>57300</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>36100</v>
+        <v>61700</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>55600</v>
+        <v>86300</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>56800</v>
+        <v>88600</v>
       </c>
     </row>
     <row r="20">
@@ -653,16 +660,16 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>80.40000000000001</v>
+        <v>235</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>233</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21">
@@ -672,22 +679,22 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>46.31</v>
+        <v>12.02</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>33.76</v>
+        <v>14.03</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>28.39</v>
+        <v>11.31</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>42.81</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_randwrite_128k</t>
+          <t>8,10,12,14_randwrite_128k</t>
         </is>
       </c>
     </row>
@@ -712,16 +719,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1224</v>
+        <v>1984</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>2235</v>
+        <v>2209</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>3147</v>
+        <v>3038</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>3138</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="28">
@@ -731,16 +738,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29">
@@ -750,22 +757,22 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>337.48</v>
+        <v>120.41</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>228.05</v>
+        <v>134.65</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>196.47</v>
+        <v>143.05</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>285.35</v>
+        <v>146.41</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_read_4k</t>
+          <t>8,10,12,14_read_4k</t>
         </is>
       </c>
     </row>
@@ -790,16 +797,16 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>218000</v>
+        <v>197000</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>279000</v>
+        <v>323000</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>371000</v>
+        <v>352000</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>749000</v>
+        <v>428000</v>
       </c>
     </row>
     <row r="36">
@@ -809,16 +816,16 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>895</v>
+        <v>809</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1142</v>
+        <v>1322</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1519</v>
+        <v>1443</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>3068</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="37">
@@ -828,22 +835,22 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>4.46817</v>
+        <v>4.92645</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>5.89138</v>
+        <v>5.7801</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>7.85371</v>
+        <v>8.12196</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>4.95728</v>
+        <v>8.971969999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_read_128k</t>
+          <t>8,10,12,14_read_128k</t>
         </is>
       </c>
     </row>
@@ -868,16 +875,16 @@
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>12000</v>
+        <v>4718</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>23800</v>
+        <v>8062</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>16700</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="44">
@@ -887,16 +894,16 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>1699</v>
+        <v>619</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>3121</v>
+        <v>1057</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>2486</v>
+        <v>1643</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>2182</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="45">
@@ -906,22 +913,22 @@
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>75.87</v>
+        <v>210.46</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>81.62</v>
+        <v>237.17</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>156.11</v>
+        <v>234.55</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>235.38</v>
+        <v>285.8</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_write_4k</t>
+          <t>8,10,12,14_write_4k</t>
         </is>
       </c>
     </row>
@@ -946,16 +953,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>57200</v>
+        <v>66100</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>101000</v>
+        <v>121000</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>144000</v>
+        <v>169000</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>176000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="52">
@@ -965,16 +972,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>590</v>
+        <v>693</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>720</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53">
@@ -984,22 +991,22 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>10.96</v>
+        <v>8.85</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>11.31</v>
+        <v>8.74</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>11.59</v>
+        <v>9.4</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>11.88</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>0,2,4,8_write_128k</t>
+          <t>8,10,12,14_write_128k</t>
         </is>
       </c>
     </row>
@@ -1024,16 +1031,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>2782</v>
+        <v>3056</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>6671</v>
+        <v>6627</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>8084</v>
+        <v>8347</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>8641</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="60">
@@ -1043,16 +1050,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>1060</v>
+        <v>1094</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1133</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="61">
@@ -1062,660 +1069,28 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>92.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>92.40000000000001</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>93.33</v>
+        <v>100.65</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>96.67</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randread_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="n">
-        <v>6247</v>
-      </c>
-      <c r="C67" s="4" t="n">
-        <v>12900</v>
-      </c>
-      <c r="D67" s="4" t="n">
-        <v>17700</v>
-      </c>
-      <c r="E67" s="4" t="n">
-        <v>23500</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="E68" s="4" t="n">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="n">
-        <v>159.6543</v>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>153.38775</v>
-      </c>
-      <c r="D69" s="4" t="n">
-        <v>168.73814</v>
-      </c>
-      <c r="E69" s="4" t="n">
-        <v>169.44949</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randread_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B75" s="4" t="n">
-        <v>4266</v>
-      </c>
-      <c r="C75" s="4" t="n">
-        <v>7236</v>
-      </c>
-      <c r="D75" s="4" t="n">
-        <v>12800</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <v>11800</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B76" s="4" t="n">
-        <v>559</v>
-      </c>
-      <c r="C76" s="4" t="n">
-        <v>949</v>
-      </c>
-      <c r="D76" s="4" t="n">
-        <v>1678</v>
-      </c>
-      <c r="E76" s="4" t="n">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B77" s="4" t="n">
-        <v>233.29</v>
-      </c>
-      <c r="C77" s="4" t="n">
-        <v>270.66</v>
-      </c>
-      <c r="D77" s="4" t="n">
-        <v>222.53</v>
-      </c>
-      <c r="E77" s="4" t="n">
-        <v>330.77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randwrite_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E82" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B83" s="4" t="n">
-        <v>19600</v>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>36100</v>
-      </c>
-      <c r="D83" s="4" t="n">
-        <v>55600</v>
-      </c>
-      <c r="E83" s="4" t="n">
-        <v>56800</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B84" s="4" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="C84" s="4" t="n">
-        <v>148</v>
-      </c>
-      <c r="D84" s="4" t="n">
-        <v>228</v>
-      </c>
-      <c r="E84" s="4" t="n">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B85" s="4" t="n">
-        <v>46.31</v>
-      </c>
-      <c r="C85" s="4" t="n">
-        <v>33.76</v>
-      </c>
-      <c r="D85" s="4" t="n">
-        <v>28.39</v>
-      </c>
-      <c r="E85" s="4" t="n">
-        <v>42.81</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_randwrite_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B91" s="4" t="n">
-        <v>1224</v>
-      </c>
-      <c r="C91" s="4" t="n">
-        <v>2235</v>
-      </c>
-      <c r="D91" s="4" t="n">
-        <v>3147</v>
-      </c>
-      <c r="E91" s="4" t="n">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B92" s="4" t="n">
-        <v>161</v>
-      </c>
-      <c r="C92" s="4" t="n">
-        <v>293</v>
-      </c>
-      <c r="D92" s="4" t="n">
-        <v>413</v>
-      </c>
-      <c r="E92" s="4" t="n">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B93" s="4" t="n">
-        <v>337.48</v>
-      </c>
-      <c r="C93" s="4" t="n">
-        <v>228.05</v>
-      </c>
-      <c r="D93" s="4" t="n">
-        <v>196.47</v>
-      </c>
-      <c r="E93" s="4" t="n">
-        <v>285.35</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_read_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B99" s="4" t="n">
-        <v>218000</v>
-      </c>
-      <c r="C99" s="4" t="n">
-        <v>279000</v>
-      </c>
-      <c r="D99" s="4" t="n">
-        <v>371000</v>
-      </c>
-      <c r="E99" s="4" t="n">
-        <v>749000</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B100" s="4" t="n">
-        <v>895</v>
-      </c>
-      <c r="C100" s="4" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D100" s="4" t="n">
-        <v>1519</v>
-      </c>
-      <c r="E100" s="4" t="n">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B101" s="4" t="n">
-        <v>4.46817</v>
-      </c>
-      <c r="C101" s="4" t="n">
-        <v>5.89138</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <v>7.85371</v>
-      </c>
-      <c r="E101" s="4" t="n">
-        <v>4.95728</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_read_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B107" s="4" t="n">
-        <v>12000</v>
-      </c>
-      <c r="C107" s="4" t="n">
-        <v>23800</v>
-      </c>
-      <c r="D107" s="4" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E107" s="4" t="n">
-        <v>16700</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B108" s="4" t="n">
-        <v>1699</v>
-      </c>
-      <c r="C108" s="4" t="n">
-        <v>3121</v>
-      </c>
-      <c r="D108" s="4" t="n">
-        <v>2486</v>
-      </c>
-      <c r="E108" s="4" t="n">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B109" s="4" t="n">
-        <v>75.87</v>
-      </c>
-      <c r="C109" s="4" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="D109" s="4" t="n">
-        <v>156.11</v>
-      </c>
-      <c r="E109" s="4" t="n">
-        <v>235.38</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_write_4k</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B115" s="4" t="n">
-        <v>57200</v>
-      </c>
-      <c r="C115" s="4" t="n">
-        <v>101000</v>
-      </c>
-      <c r="D115" s="4" t="n">
-        <v>144000</v>
-      </c>
-      <c r="E115" s="4" t="n">
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B116" s="4" t="n">
-        <v>234</v>
-      </c>
-      <c r="C116" s="4" t="n">
-        <v>415</v>
-      </c>
-      <c r="D116" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="E116" s="4" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B117" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C117" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="D117" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="E117" s="4" t="n">
-        <v>11.88</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>8,10,12,14_write_128k</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E122" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>IOPS</t>
-        </is>
-      </c>
-      <c r="B123" s="4" t="n">
-        <v>2782</v>
-      </c>
-      <c r="C123" s="4" t="n">
-        <v>6671</v>
-      </c>
-      <c r="D123" s="4" t="n">
-        <v>8084</v>
-      </c>
-      <c r="E123" s="4" t="n">
-        <v>8641</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>BW(MB/s)</t>
-        </is>
-      </c>
-      <c r="B124" s="4" t="n">
-        <v>365</v>
-      </c>
-      <c r="C124" s="4" t="n">
-        <v>874</v>
-      </c>
-      <c r="D124" s="4" t="n">
-        <v>1060</v>
-      </c>
-      <c r="E124" s="4" t="n">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>lat_avg</t>
-        </is>
-      </c>
-      <c r="B125" s="4" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="C125" s="4" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="D125" s="4" t="n">
-        <v>93.33</v>
-      </c>
-      <c r="E125" s="4" t="n">
-        <v>96.67</v>
+        <v>106.61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="8">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B113:E113"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B121:E121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randread_4k</t>
+          <t>0,2,4,6_randread_4k</t>
         </is>
       </c>
     </row>
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6324</v>
+        <v>6247</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11800</v>
+        <v>12900</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22300</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>48.1</v>
+        <v>52.9</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>69.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>91.40000000000001</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="5">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>157.71748</v>
+        <v>159.6543</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>169.04784</v>
+        <v>153.38775</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>175.80612</v>
+        <v>168.73814</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>177.18539</v>
+        <v>169.44949</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randread_128k</t>
+          <t>0,2,4,6_randread_128k</t>
         </is>
       </c>
     </row>
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>2820</v>
+        <v>4266</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>4785</v>
+        <v>7236</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>7228</v>
+        <v>12800</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>8770</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="12">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>370</v>
+        <v>559</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>627</v>
+        <v>949</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>947</v>
+        <v>1678</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1150</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="13">
@@ -601,22 +601,22 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>353.96</v>
+        <v>233.29</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>408.66</v>
+        <v>270.66</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>401.57</v>
+        <v>222.53</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>448.9</v>
+        <v>330.77</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randwrite_4k</t>
+          <t>0,2,4,6_randwrite_4k</t>
         </is>
       </c>
     </row>
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>57300</v>
+        <v>19600</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>61700</v>
+        <v>36100</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>86300</v>
+        <v>55600</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>88600</v>
+        <v>56800</v>
       </c>
     </row>
     <row r="20">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>235</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>363</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21">
@@ -679,22 +679,22 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>12.02</v>
+        <v>46.31</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>14.03</v>
+        <v>33.76</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>11.31</v>
+        <v>28.39</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>12.26</v>
+        <v>42.81</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_randwrite_128k</t>
+          <t>0,2,4,6_randwrite_128k</t>
         </is>
       </c>
     </row>
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1984</v>
+        <v>1224</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>2209</v>
+        <v>2235</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>3038</v>
+        <v>3147</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>3072</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="28">
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>120.41</v>
+        <v>337.48</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>134.65</v>
+        <v>228.05</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>143.05</v>
+        <v>196.47</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>146.41</v>
+        <v>285.35</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_read_4k</t>
+          <t>0,2,4,6_read_4k</t>
         </is>
       </c>
     </row>
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>197000</v>
+        <v>218000</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>323000</v>
+        <v>279000</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>352000</v>
+        <v>371000</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>428000</v>
+        <v>749000</v>
       </c>
     </row>
     <row r="36">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>809</v>
+        <v>895</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1322</v>
+        <v>1142</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1443</v>
+        <v>1519</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>1754</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="37">
@@ -835,22 +835,22 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>4.92645</v>
+        <v>4.46817</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>5.7801</v>
+        <v>5.89138</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>8.12196</v>
+        <v>7.85371</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>8.971969999999999</v>
+        <v>4.95728</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_read_128k</t>
+          <t>0,2,4,6_read_128k</t>
         </is>
       </c>
     </row>
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>4718</v>
+        <v>12000</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>8062</v>
+        <v>23800</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>13600</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="44">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>619</v>
+        <v>1699</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1057</v>
+        <v>3121</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1643</v>
+        <v>2486</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1784</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="45">
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>210.46</v>
+        <v>75.87</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>237.17</v>
+        <v>81.62</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>234.55</v>
+        <v>156.11</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>285.8</v>
+        <v>235.38</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_write_4k</t>
+          <t>0,2,4,6_write_4k</t>
         </is>
       </c>
     </row>
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>66100</v>
+        <v>57200</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>121000</v>
+        <v>101000</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>169000</v>
+        <v>144000</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>200000</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="52">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>496</v>
+        <v>415</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>693</v>
+        <v>590</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>821</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53">
@@ -991,22 +991,22 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>8.85</v>
+        <v>10.96</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>8.74</v>
+        <v>11.31</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>9.4</v>
+        <v>11.59</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>9.94</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>8,10,12,14_write_128k</t>
+          <t>0,2,4,6_write_128k</t>
         </is>
       </c>
     </row>
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>3056</v>
+        <v>2782</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>6627</v>
+        <v>6671</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>8347</v>
+        <v>8084</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>9287</v>
+        <v>8641</v>
       </c>
     </row>
     <row r="60">
@@ -1050,16 +1050,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>1094</v>
+        <v>1060</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1217</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="61">
@@ -1069,28 +1069,660 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="C61" s="4" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="D61" s="4" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>96.67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randread_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>6324</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>11800</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>16900</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>22300</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>91.40000000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>157.71748</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>169.04784</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>175.80612</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>177.18539</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randread_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>2820</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>4785</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>7228</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>8770</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>627</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>947</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>353.96</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>408.66</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>401.57</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>448.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randwrite_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>57300</v>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>61700</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>86300</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>88600</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>235</v>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>253</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>354</v>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_randwrite_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>2209</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>3038</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>290</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>398</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>120.41</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>134.65</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>143.05</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>146.41</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_read_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>197000</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>323000</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>352000</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>428000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>809</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>1443</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>4.92645</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>5.7801</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>8.12196</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>8.971969999999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_read_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>4718</v>
+      </c>
+      <c r="C107" s="4" t="n">
+        <v>8062</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E107" s="4" t="n">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>619</v>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>1057</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>1643</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>210.46</v>
+      </c>
+      <c r="C109" s="4" t="n">
+        <v>237.17</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <v>234.55</v>
+      </c>
+      <c r="E109" s="4" t="n">
+        <v>285.8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_write_4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>66100</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>121000</v>
+      </c>
+      <c r="D115" s="4" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E115" s="4" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>496</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>693</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>8,10,12,14_write_128k</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>IOPS</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>3056</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>6627</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>8347</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>9287</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>BW(MB/s)</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>401</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>869</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>1094</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>lat_avg</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="C125" s="4" t="n">
         <v>94.29000000000001</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D125" s="4" t="n">
         <v>100.65</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E125" s="4" t="n">
         <v>106.61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B113:E113"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B121:E121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6247</v>
+        <v>30300</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12900</v>
+        <v>60700</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>17700</v>
+        <v>90200</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23500</v>
+        <v>121000</v>
       </c>
     </row>
     <row r="4">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>25.6</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>52.9</v>
+        <v>249</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>72.40000000000001</v>
+        <v>369</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>96.2</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5">
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>159.6543</v>
+        <v>32.82065</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>153.38775</v>
+        <v>32.77107</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>168.73814</v>
+        <v>33.04954</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>169.44949</v>
+        <v>32.85195</v>
       </c>
     </row>
     <row r="9">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>4266</v>
+        <v>9061</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>7236</v>
+        <v>16500</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>12800</v>
+        <v>24200</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>11800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="12">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>559</v>
+        <v>1188</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>949</v>
+        <v>2165</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1678</v>
+        <v>3170</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1543</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="13">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>233.29</v>
+        <v>110.08</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>270.66</v>
+        <v>119.57</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>222.53</v>
+        <v>122.19</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>330.77</v>
+        <v>133.41</v>
       </c>
     </row>
     <row r="17">
@@ -641,16 +641,16 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>19600</v>
+        <v>109000</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>36100</v>
+        <v>178000</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>55600</v>
+        <v>234000</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>56800</v>
+        <v>277000</v>
       </c>
     </row>
     <row r="20">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>80.40000000000001</v>
+        <v>444</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>148</v>
+        <v>729</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>228</v>
+        <v>956</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>233</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21">
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>46.31</v>
+        <v>7.66</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>33.76</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>28.39</v>
+        <v>8.81</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>42.81</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="25">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>1224</v>
+        <v>9941</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>2235</v>
+        <v>13300</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>3147</v>
+        <v>16700</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>3138</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="28">
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>161</v>
+        <v>1303</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>293</v>
+        <v>1743</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>413</v>
+        <v>2188</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>411</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="29">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>337.48</v>
+        <v>58.04</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>228.05</v>
+        <v>61.17</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>196.47</v>
+        <v>67.8</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>285.35</v>
+        <v>71.55</v>
       </c>
     </row>
     <row r="33">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>218000</v>
+        <v>596000</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>279000</v>
+        <v>728000</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>371000</v>
+        <v>847000</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>749000</v>
+        <v>936000</v>
       </c>
     </row>
     <row r="36">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B36" s="4" t="n">
-        <v>895</v>
+        <v>2440</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1142</v>
+        <v>2983</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1519</v>
+        <v>3471</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>3068</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="37">
@@ -835,16 +835,16 @@
         </is>
       </c>
       <c r="B37" s="4" t="n">
-        <v>4.46817</v>
+        <v>1.55125</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>5.89138</v>
+        <v>2.52192</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>7.85371</v>
+        <v>3.30118</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>4.95728</v>
+        <v>4.102600000000001</v>
       </c>
     </row>
     <row r="41">
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="B43" s="4" t="n">
-        <v>12000</v>
+        <v>15100</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>23800</v>
+        <v>27700</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>18000</v>
+        <v>30700</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>16700</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="44">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>1699</v>
+        <v>1974</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>3121</v>
+        <v>3628</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>2486</v>
+        <v>4027</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>2182</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="45">
@@ -913,16 +913,16 @@
         </is>
       </c>
       <c r="B45" s="4" t="n">
-        <v>75.87</v>
+        <v>66.19</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>81.62</v>
+        <v>70.42</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>156.11</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>235.38</v>
+        <v>123.22</v>
       </c>
     </row>
     <row r="49">
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B51" s="4" t="n">
-        <v>57200</v>
+        <v>101000</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>101000</v>
+        <v>169000</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>144000</v>
+        <v>216000</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>176000</v>
+        <v>251000</v>
       </c>
     </row>
     <row r="52">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B52" s="4" t="n">
-        <v>234</v>
+        <v>413</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>415</v>
+        <v>694</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>590</v>
+        <v>883</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>720</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="53">
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>10.96</v>
+        <v>7.77</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>11.31</v>
+        <v>8.01</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>11.59</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>11.88</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>2782</v>
+        <v>8062</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>6671</v>
+        <v>10600</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>8084</v>
+        <v>12300</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>8641</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="60">
@@ -1050,16 +1050,16 @@
         </is>
       </c>
       <c r="B60" s="4" t="n">
-        <v>365</v>
+        <v>1057</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>874</v>
+        <v>1391</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>1060</v>
+        <v>1617</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1133</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="61">
@@ -1069,16 +1069,16 @@
         </is>
       </c>
       <c r="B61" s="4" t="n">
-        <v>92.2</v>
+        <v>64.83</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>92.40000000000001</v>
+        <v>66.45</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>93.33</v>
+        <v>71.13</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>96.67</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="65">
@@ -1109,16 +1109,16 @@
         </is>
       </c>
       <c r="B67" s="4" t="n">
-        <v>6324</v>
+        <v>30700</v>
       </c>
       <c r="C67" s="4" t="n">
-        <v>11800</v>
+        <v>61200</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>16900</v>
+        <v>70100</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>22300</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="68">
@@ -1128,16 +1128,16 @@
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>25.9</v>
+        <v>126</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>48.1</v>
+        <v>251</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>69.40000000000001</v>
+        <v>287</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>91.40000000000001</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69">
@@ -1147,16 +1147,16 @@
         </is>
       </c>
       <c r="B69" s="4" t="n">
-        <v>157.71748</v>
+        <v>32.45162</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>169.04784</v>
+        <v>32.49486</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>175.80612</v>
+        <v>42.25508</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>177.18539</v>
+        <v>33.73512</v>
       </c>
     </row>
     <row r="73">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="B75" s="4" t="n">
-        <v>2820</v>
+        <v>8982</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>4785</v>
+        <v>17100</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>7228</v>
+        <v>23800</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>8770</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="76">
@@ -1206,16 +1206,16 @@
         </is>
       </c>
       <c r="B76" s="4" t="n">
-        <v>370</v>
+        <v>1177</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>627</v>
+        <v>2237</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>947</v>
+        <v>3121</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>1150</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="77">
@@ -1225,16 +1225,16 @@
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>353.96</v>
+        <v>110.49</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>408.66</v>
+        <v>115.22</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>401.57</v>
+        <v>124.23</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>448.9</v>
+        <v>136.53</v>
       </c>
     </row>
     <row r="81">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>57300</v>
+        <v>112000</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>61700</v>
+        <v>184000</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>86300</v>
+        <v>241000</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>88600</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="84">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B84" s="4" t="n">
-        <v>235</v>
+        <v>460</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>253</v>
+        <v>754</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>354</v>
+        <v>987</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>363</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="85">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B85" s="4" t="n">
-        <v>12.02</v>
+        <v>7.399850000000001</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>14.03</v>
+        <v>8.242299999999998</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>11.31</v>
+        <v>8.81</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>12.26</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="89">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="B91" s="4" t="n">
-        <v>1984</v>
+        <v>9941</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>2209</v>
+        <v>14600</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>3038</v>
+        <v>16900</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>3072</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="92">
@@ -1362,16 +1362,16 @@
         </is>
       </c>
       <c r="B92" s="4" t="n">
-        <v>260</v>
+        <v>1303</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>290</v>
+        <v>1917</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>398</v>
+        <v>2212</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>403</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="93">
@@ -1381,16 +1381,16 @@
         </is>
       </c>
       <c r="B93" s="4" t="n">
-        <v>120.41</v>
+        <v>58.18084</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>134.65</v>
+        <v>61.38</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>143.05</v>
+        <v>67.64</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>146.41</v>
+        <v>73.06999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -1421,16 +1421,16 @@
         </is>
       </c>
       <c r="B99" s="4" t="n">
-        <v>197000</v>
+        <v>607000</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>323000</v>
+        <v>809000</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>352000</v>
+        <v>855000</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>428000</v>
+        <v>851000</v>
       </c>
     </row>
     <row r="100">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="B100" s="4" t="n">
-        <v>809</v>
+        <v>2486</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1322</v>
+        <v>3314</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>1443</v>
+        <v>3501</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>1754</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="101">
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="B101" s="4" t="n">
-        <v>4.92645</v>
+        <v>1.52803</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>5.7801</v>
+        <v>2.34999</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>8.12196</v>
+        <v>3.34637</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>8.971969999999999</v>
+        <v>4.50437</v>
       </c>
     </row>
     <row r="105">
@@ -1499,16 +1499,16 @@
         </is>
       </c>
       <c r="B107" s="4" t="n">
-        <v>4718</v>
+        <v>17100</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>8062</v>
+        <v>25600</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>12500</v>
+        <v>29300</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>13600</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="108">
@@ -1518,16 +1518,16 @@
         </is>
       </c>
       <c r="B108" s="4" t="n">
-        <v>619</v>
+        <v>2237</v>
       </c>
       <c r="C108" s="4" t="n">
-        <v>1057</v>
+        <v>3355</v>
       </c>
       <c r="D108" s="4" t="n">
-        <v>1643</v>
+        <v>3835</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>1784</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="109">
@@ -1537,16 +1537,16 @@
         </is>
       </c>
       <c r="B109" s="4" t="n">
-        <v>210.46</v>
+        <v>58.23</v>
       </c>
       <c r="C109" s="4" t="n">
-        <v>237.17</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="D109" s="4" t="n">
-        <v>234.55</v>
+        <v>98.36</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>285.8</v>
+        <v>124.42</v>
       </c>
     </row>
     <row r="113">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="B115" s="4" t="n">
-        <v>66100</v>
+        <v>101000</v>
       </c>
       <c r="C115" s="4" t="n">
-        <v>121000</v>
+        <v>171000</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>169000</v>
+        <v>217000</v>
       </c>
       <c r="E115" s="4" t="n">
-        <v>200000</v>
+        <v>239000</v>
       </c>
     </row>
     <row r="116">
@@ -1596,16 +1596,16 @@
         </is>
       </c>
       <c r="B116" s="4" t="n">
-        <v>271</v>
+        <v>416</v>
       </c>
       <c r="C116" s="4" t="n">
-        <v>496</v>
+        <v>701</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>693</v>
+        <v>889</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>821</v>
+        <v>980</v>
       </c>
     </row>
     <row r="117">
@@ -1615,16 +1615,16 @@
         </is>
       </c>
       <c r="B117" s="4" t="n">
-        <v>8.85</v>
+        <v>7.93</v>
       </c>
       <c r="C117" s="4" t="n">
-        <v>8.74</v>
+        <v>7.974810000000001</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>9.4</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E117" s="4" t="n">
-        <v>9.94</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="121">
@@ -1655,16 +1655,16 @@
         </is>
       </c>
       <c r="B123" s="4" t="n">
-        <v>3056</v>
+        <v>7937</v>
       </c>
       <c r="C123" s="4" t="n">
-        <v>6627</v>
+        <v>9061</v>
       </c>
       <c r="D123" s="4" t="n">
-        <v>8347</v>
+        <v>12100</v>
       </c>
       <c r="E123" s="4" t="n">
-        <v>9287</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="124">
@@ -1674,16 +1674,16 @@
         </is>
       </c>
       <c r="B124" s="4" t="n">
-        <v>401</v>
+        <v>1040</v>
       </c>
       <c r="C124" s="4" t="n">
-        <v>869</v>
+        <v>1188</v>
       </c>
       <c r="D124" s="4" t="n">
-        <v>1094</v>
+        <v>1592</v>
       </c>
       <c r="E124" s="4" t="n">
-        <v>1217</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="125">
@@ -1693,16 +1693,16 @@
         </is>
       </c>
       <c r="B125" s="4" t="n">
-        <v>92.40000000000001</v>
+        <v>65.61114000000001</v>
       </c>
       <c r="C125" s="4" t="n">
-        <v>94.29000000000001</v>
+        <v>102.56</v>
       </c>
       <c r="D125" s="4" t="n">
-        <v>100.65</v>
+        <v>79.44</v>
       </c>
       <c r="E125" s="4" t="n">
-        <v>106.61</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>4376</v>
+        <v>5885</v>
       </c>
       <c r="C3" s="3">
-        <v>8094</v>
+        <v>11200</v>
       </c>
       <c r="D3" s="3">
-        <v>16400</v>
+        <v>18100</v>
       </c>
       <c r="E3" s="3">
-        <v>25600</v>
+        <v>28400</v>
       </c>
       <c r="F3" s="3">
-        <v>27500</v>
+        <v>30500</v>
       </c>
       <c r="G3" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>573.571072</v>
+        <v>771.751936</v>
       </c>
       <c r="C4" s="4">
-        <v>1061.158912</v>
+        <v>1466.957824</v>
       </c>
       <c r="D4" s="4">
-        <v>2155.872256</v>
+        <v>2375.02464</v>
       </c>
       <c r="E4" s="4">
-        <v>3355.4432</v>
+        <v>3728.736256</v>
       </c>
       <c r="F4" s="4">
-        <v>3602.907136</v>
+        <v>3999.268864</v>
       </c>
       <c r="G4" s="4">
-        <v>3329.2288</v>
+        <v>3304.062976</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>227.14</v>
+        <v>168.7</v>
       </c>
       <c r="C5" s="4">
-        <v>242.07</v>
+        <v>174.75</v>
       </c>
       <c r="D5" s="4">
-        <v>238.74</v>
+        <v>218.15</v>
       </c>
       <c r="E5" s="4">
-        <v>308.51</v>
+        <v>255.3</v>
       </c>
       <c r="F5" s="4">
-        <v>557.0700000000001</v>
+        <v>503.94</v>
       </c>
       <c r="G5" s="4">
-        <v>1240.63</v>
+        <v>1250.33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="C6" s="4">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="D6" s="4">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="E6" s="4">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="F6" s="4">
-        <v>1029</v>
+        <v>971</v>
       </c>
       <c r="G6" s="4">
-        <v>2769</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>433</v>
+        <v>302</v>
       </c>
       <c r="C7" s="4">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="D7" s="4">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="E7" s="4">
-        <v>635</v>
+        <v>578</v>
       </c>
       <c r="F7" s="4">
-        <v>1172</v>
+        <v>1139</v>
       </c>
       <c r="G7" s="4">
-        <v>3654</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>20000</v>
+        <v>27800</v>
       </c>
       <c r="C12" s="3">
-        <v>44600</v>
+        <v>55400</v>
       </c>
       <c r="D12" s="3">
-        <v>83800</v>
+        <v>107000</v>
       </c>
       <c r="E12" s="3">
-        <v>189000</v>
+        <v>201000</v>
       </c>
       <c r="F12" s="3">
         <v>306000</v>
       </c>
       <c r="G12" s="3">
-        <v>283000</v>
+        <v>296000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>81.8937856</v>
+        <v>114.294784</v>
       </c>
       <c r="C13" s="4">
-        <v>182.452224</v>
+        <v>226.492416</v>
       </c>
       <c r="D13" s="4">
-        <v>342.884352</v>
+        <v>437.256192</v>
       </c>
       <c r="E13" s="4">
-        <v>773.8490880000001</v>
+        <v>823.13216</v>
       </c>
       <c r="F13" s="4">
-        <v>1253.04832</v>
+        <v>1251.999744</v>
       </c>
       <c r="G13" s="4">
-        <v>1160.773632</v>
+        <v>1212.153856</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>49.63804</v>
+        <v>35.6589</v>
       </c>
       <c r="C14" s="4">
-        <v>44.3436</v>
+        <v>35.71173</v>
       </c>
       <c r="D14" s="4">
-        <v>46.67045</v>
+        <v>36.82257</v>
       </c>
       <c r="E14" s="4">
-        <v>41.2109</v>
+        <v>38.90130000000001</v>
       </c>
       <c r="F14" s="4">
-        <v>51.34395</v>
+        <v>51.47196</v>
       </c>
       <c r="G14" s="4">
-        <v>111.6219</v>
+        <v>106.83795</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>92.672</v>
+        <v>62.72</v>
       </c>
       <c r="C15" s="4">
-        <v>82.432</v>
+        <v>64.256</v>
       </c>
       <c r="D15" s="4">
-        <v>87.55200000000001</v>
+        <v>69.12</v>
       </c>
       <c r="E15" s="4">
-        <v>82.432</v>
+        <v>78.336</v>
       </c>
       <c r="F15" s="4">
         <v>110.08</v>
       </c>
       <c r="G15" s="4">
-        <v>358.4</v>
+        <v>342.016</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>114.176</v>
+        <v>91.648</v>
       </c>
       <c r="C16" s="4">
-        <v>108.032</v>
+        <v>92.672</v>
       </c>
       <c r="D16" s="4">
-        <v>114.176</v>
+        <v>95.744</v>
       </c>
       <c r="E16" s="4">
-        <v>105.984</v>
+        <v>102.912</v>
       </c>
       <c r="F16" s="4">
-        <v>134.144</v>
+        <v>136.192</v>
       </c>
       <c r="G16" s="4">
-        <v>528.384</v>
+        <v>505.856</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>3531</v>
+        <v>5595</v>
       </c>
       <c r="C21" s="3">
-        <v>6543</v>
+        <v>8865</v>
       </c>
       <c r="D21" s="3">
-        <v>11900</v>
+        <v>13800</v>
       </c>
       <c r="E21" s="3">
-        <v>15100</v>
+        <v>13700</v>
       </c>
       <c r="F21" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="G21" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>462.422016</v>
+        <v>732.954624</v>
       </c>
       <c r="C22" s="4">
-        <v>857.735168</v>
+        <v>1161.822208</v>
       </c>
       <c r="D22" s="4">
-        <v>1565.523968</v>
+        <v>1814.03648</v>
       </c>
       <c r="E22" s="4">
-        <v>1980.760064</v>
+        <v>1793.06496</v>
       </c>
       <c r="F22" s="4">
-        <v>2002.78016</v>
+        <v>2075.131904</v>
       </c>
       <c r="G22" s="4">
-        <v>2110.783488</v>
+        <v>2089.811968</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>231</v>
+        <v>141.25</v>
       </c>
       <c r="C23" s="4">
-        <v>245.98</v>
+        <v>160.22</v>
       </c>
       <c r="D23" s="4">
-        <v>223.6</v>
+        <v>171.41</v>
       </c>
       <c r="E23" s="4">
-        <v>304.69</v>
+        <v>361.72</v>
       </c>
       <c r="F23" s="4">
-        <v>607.83</v>
+        <v>556.85</v>
       </c>
       <c r="G23" s="4">
-        <v>1222.26</v>
+        <v>1197.49</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,22 +829,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="D24" s="4">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="E24" s="4">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="F24" s="4">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="G24" s="4">
-        <v>1614</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>363</v>
+        <v>217</v>
       </c>
       <c r="C25" s="4">
-        <v>375</v>
+        <v>229</v>
       </c>
       <c r="D25" s="4">
-        <v>355</v>
+        <v>243</v>
       </c>
       <c r="E25" s="4">
-        <v>445</v>
+        <v>545</v>
       </c>
       <c r="F25" s="4">
-        <v>1123</v>
+        <v>1029</v>
       </c>
       <c r="G25" s="4">
-        <v>1975</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>28700</v>
+        <v>51600</v>
       </c>
       <c r="C30" s="3">
-        <v>64700</v>
+        <v>101000</v>
       </c>
       <c r="D30" s="3">
-        <v>124000</v>
+        <v>188000</v>
       </c>
       <c r="E30" s="3">
-        <v>223000</v>
+        <v>265000</v>
       </c>
       <c r="F30" s="3">
-        <v>308000</v>
+        <v>283000</v>
       </c>
       <c r="G30" s="3">
-        <v>360000</v>
+        <v>317000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>117.440512</v>
+        <v>211.812352</v>
       </c>
       <c r="C31" s="4">
-        <v>265.289728</v>
+        <v>415.236096</v>
       </c>
       <c r="D31" s="4">
-        <v>506.462208</v>
+        <v>767.557632</v>
       </c>
       <c r="E31" s="4">
-        <v>913.309696</v>
+        <v>1083.179008</v>
       </c>
       <c r="F31" s="4">
-        <v>1261.436928</v>
+        <v>1159.725056</v>
       </c>
       <c r="G31" s="4">
-        <v>1474.297856</v>
+        <v>1298.137088</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>31.94</v>
+        <v>17.33986</v>
       </c>
       <c r="C32" s="4">
-        <v>27.33</v>
+        <v>17.34603</v>
       </c>
       <c r="D32" s="4">
-        <v>25.79</v>
+        <v>17.7024</v>
       </c>
       <c r="E32" s="4">
-        <v>25.0911</v>
+        <v>23.05</v>
       </c>
       <c r="F32" s="4">
-        <v>32.04</v>
+        <v>36.67</v>
       </c>
       <c r="G32" s="4">
-        <v>58.06</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>39</v>
+        <v>20.352</v>
       </c>
       <c r="C33" s="4">
-        <v>37.12</v>
+        <v>22.144</v>
       </c>
       <c r="D33" s="4">
-        <v>33.024</v>
+        <v>22.912</v>
       </c>
       <c r="E33" s="4">
-        <v>34.048</v>
+        <v>31.616</v>
       </c>
       <c r="F33" s="4">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G33" s="4">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -998,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>43</v>
+        <v>22.4</v>
       </c>
       <c r="C34" s="4">
-        <v>41.728</v>
+        <v>24.192</v>
       </c>
       <c r="D34" s="4">
-        <v>38.144</v>
+        <v>25.472</v>
       </c>
       <c r="E34" s="4">
-        <v>40.192</v>
+        <v>35.584</v>
       </c>
       <c r="F34" s="4">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G34" s="4">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1052,19 +1052,19 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>7641</v>
+        <v>11900</v>
       </c>
       <c r="C39" s="3">
-        <v>13600</v>
+        <v>15200</v>
       </c>
       <c r="D39" s="3">
-        <v>18100</v>
+        <v>22000</v>
       </c>
       <c r="E39" s="3">
-        <v>18600</v>
+        <v>21300</v>
       </c>
       <c r="F39" s="3">
-        <v>18900</v>
+        <v>19700</v>
       </c>
       <c r="G39" s="3">
         <v>15700</v>
@@ -1075,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1001.39008</v>
+        <v>1560.281088</v>
       </c>
       <c r="C40" s="4">
-        <v>1777.33632</v>
+        <v>1988.100096</v>
       </c>
       <c r="D40" s="4">
-        <v>2375.02464</v>
+        <v>2886.729728</v>
       </c>
       <c r="E40" s="4">
-        <v>2434.793472</v>
+        <v>2789.21216</v>
       </c>
       <c r="F40" s="4">
-        <v>2476.736512</v>
+        <v>2584.73984</v>
       </c>
       <c r="G40" s="4">
-        <v>2053.111808</v>
+        <v>2058.354688</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>129.48</v>
+        <v>83.53</v>
       </c>
       <c r="C41" s="4">
-        <v>138.39</v>
+        <v>115.77</v>
       </c>
       <c r="D41" s="4">
-        <v>217.65</v>
+        <v>175.91</v>
       </c>
       <c r="E41" s="4">
-        <v>412.55</v>
+        <v>353.93</v>
       </c>
       <c r="F41" s="4">
-        <v>801.42</v>
+        <v>781.41</v>
       </c>
       <c r="G41" s="4">
-        <v>2017.96</v>
+        <v>2008.25</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>334</v>
+        <v>190</v>
       </c>
       <c r="C42" s="4">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="D42" s="4">
-        <v>578</v>
+        <v>453</v>
       </c>
       <c r="E42" s="4">
-        <v>1385</v>
+        <v>1106</v>
       </c>
       <c r="F42" s="4">
-        <v>2212</v>
+        <v>2147</v>
       </c>
       <c r="G42" s="4">
-        <v>5538</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,19 +1144,19 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>392</v>
+        <v>202</v>
       </c>
       <c r="C43" s="4">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="D43" s="4">
-        <v>676</v>
+        <v>553</v>
       </c>
       <c r="E43" s="4">
-        <v>1647</v>
+        <v>1434</v>
       </c>
       <c r="F43" s="4">
-        <v>2933</v>
+        <v>2900</v>
       </c>
       <c r="G43" s="4">
         <v>7046</v>
@@ -1198,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>229000</v>
+        <v>318000</v>
       </c>
       <c r="C48" s="3">
-        <v>405000</v>
+        <v>529000</v>
       </c>
       <c r="D48" s="3">
-        <v>577000</v>
+        <v>679000</v>
       </c>
       <c r="E48" s="3">
-        <v>585000</v>
+        <v>683000</v>
       </c>
       <c r="F48" s="3">
-        <v>612000</v>
+        <v>646000</v>
       </c>
       <c r="G48" s="3">
-        <v>535000</v>
+        <v>537000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>938.47552</v>
+        <v>1303.379968</v>
       </c>
       <c r="C49" s="4">
-        <v>1656.75008</v>
+        <v>2165.30944</v>
       </c>
       <c r="D49" s="4">
-        <v>2365.587456</v>
+        <v>2781.872128</v>
       </c>
       <c r="E49" s="4">
-        <v>2397.044736</v>
+        <v>2796.552192</v>
       </c>
       <c r="F49" s="4">
-        <v>2506.09664</v>
+        <v>2644.508672</v>
       </c>
       <c r="G49" s="4">
-        <v>2191.52384</v>
+        <v>2199.912448</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>4.08805</v>
+        <v>2.92857</v>
       </c>
       <c r="C50" s="4">
-        <v>4.32326</v>
+        <v>3.44758</v>
       </c>
       <c r="D50" s="4">
-        <v>6.46433</v>
+        <v>5.54321</v>
       </c>
       <c r="E50" s="4">
-        <v>13.18759</v>
+        <v>10.94433</v>
       </c>
       <c r="F50" s="4">
-        <v>24.40666</v>
+        <v>23.40143</v>
       </c>
       <c r="G50" s="4">
-        <v>58.67105</v>
+        <v>58.51288</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1267,19 +1267,19 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>1.656</v>
+        <v>1.688</v>
       </c>
       <c r="C51" s="4">
-        <v>1.672</v>
+        <v>2.096</v>
       </c>
       <c r="D51" s="4">
-        <v>3.632</v>
+        <v>4.448</v>
       </c>
       <c r="E51" s="4">
-        <v>5.600000000000001</v>
+        <v>6.176</v>
       </c>
       <c r="F51" s="4">
-        <v>7.008</v>
+        <v>6.496</v>
       </c>
       <c r="G51" s="4">
         <v>13.76</v>
@@ -1290,19 +1290,19 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
+        <v>80.384</v>
+      </c>
+      <c r="C52" s="4">
+        <v>103.936</v>
+      </c>
+      <c r="D52" s="4">
         <v>166.912</v>
       </c>
-      <c r="C52" s="4">
-        <v>162.816</v>
-      </c>
-      <c r="D52" s="4">
-        <v>252.928</v>
-      </c>
       <c r="E52" s="4">
-        <v>468.992</v>
+        <v>403.456</v>
       </c>
       <c r="F52" s="4">
-        <v>1138.688</v>
+        <v>1089.536</v>
       </c>
       <c r="G52" s="4">
         <v>3096.576</v>
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>2659</v>
+        <v>5417</v>
       </c>
       <c r="C57" s="3">
-        <v>5505</v>
+        <v>8641</v>
       </c>
       <c r="D57" s="3">
-        <v>9503</v>
+        <v>12700</v>
       </c>
       <c r="E57" s="3">
-        <v>12100</v>
+        <v>14900</v>
       </c>
       <c r="F57" s="3">
-        <v>12400</v>
+        <v>13600</v>
       </c>
       <c r="G57" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>348.127232</v>
+        <v>709.885952</v>
       </c>
       <c r="C58" s="4">
-        <v>721.420288</v>
+        <v>1132.46208</v>
       </c>
       <c r="D58" s="4">
-        <v>1245.708288</v>
+        <v>1661.99296</v>
       </c>
       <c r="E58" s="4">
-        <v>1581.252608</v>
+        <v>1952.448512</v>
       </c>
       <c r="F58" s="4">
-        <v>1630.53568</v>
+        <v>1787.82208</v>
       </c>
       <c r="G58" s="4">
-        <v>1915.748352</v>
+        <v>1892.67968</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>318.31</v>
+        <v>134.6</v>
       </c>
       <c r="C59" s="4">
-        <v>283.38</v>
+        <v>139.2</v>
       </c>
       <c r="D59" s="4">
-        <v>247.75</v>
+        <v>145.88</v>
       </c>
       <c r="E59" s="4">
-        <v>313.2</v>
+        <v>197.17</v>
       </c>
       <c r="F59" s="4">
-        <v>666.08</v>
+        <v>561.77</v>
       </c>
       <c r="G59" s="4">
-        <v>1345.54</v>
+        <v>1353.49</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1413,19 +1413,19 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>338</v>
+        <v>161</v>
       </c>
       <c r="C60" s="4">
-        <v>310</v>
+        <v>167</v>
       </c>
       <c r="D60" s="4">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="E60" s="4">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="F60" s="4">
-        <v>873</v>
+        <v>799</v>
       </c>
       <c r="G60" s="4">
         <v>1647</v>
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>359</v>
+        <v>165</v>
       </c>
       <c r="C61" s="4">
-        <v>351</v>
+        <v>176</v>
       </c>
       <c r="D61" s="4">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="E61" s="4">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="F61" s="4">
-        <v>988</v>
+        <v>914</v>
       </c>
       <c r="G61" s="4">
-        <v>1827</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>26400</v>
+        <v>54400</v>
       </c>
       <c r="C66" s="3">
-        <v>67900</v>
+        <v>114000</v>
       </c>
       <c r="D66" s="3">
-        <v>132000</v>
+        <v>175000</v>
       </c>
       <c r="E66" s="3">
-        <v>216000</v>
+        <v>239000</v>
       </c>
       <c r="F66" s="3">
-        <v>340000</v>
+        <v>362000</v>
       </c>
       <c r="G66" s="3">
-        <v>434000</v>
+        <v>453000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>108.003328</v>
+        <v>223.346688</v>
       </c>
       <c r="C67" s="4">
-        <v>277.87264</v>
+        <v>465.567744</v>
       </c>
       <c r="D67" s="4">
-        <v>541.065216</v>
+        <v>715.128832</v>
       </c>
       <c r="E67" s="4">
-        <v>887.095296</v>
+        <v>980.41856</v>
       </c>
       <c r="F67" s="4">
-        <v>1393.557504</v>
+        <v>1483.73504</v>
       </c>
       <c r="G67" s="4">
-        <v>1778.384896</v>
+        <v>1853.882368</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>35.87</v>
+        <v>16.51381</v>
       </c>
       <c r="C68" s="4">
-        <v>26.33</v>
+        <v>14.37554</v>
       </c>
       <c r="D68" s="4">
-        <v>24.46</v>
+        <v>17.8526</v>
       </c>
       <c r="E68" s="4">
-        <v>26.23</v>
+        <v>22.45</v>
       </c>
       <c r="F68" s="4">
-        <v>32.76</v>
+        <v>29.7</v>
       </c>
       <c r="G68" s="4">
-        <v>57.71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>41.216</v>
+        <v>19.328</v>
       </c>
       <c r="C69" s="4">
-        <v>35.072</v>
+        <v>19.328</v>
       </c>
       <c r="D69" s="4">
-        <v>30.592</v>
+        <v>22.656</v>
       </c>
       <c r="E69" s="4">
-        <v>35.584</v>
+        <v>30.848</v>
       </c>
       <c r="F69" s="4">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G69" s="4">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>45.824</v>
+        <v>21.12</v>
       </c>
       <c r="C70" s="4">
-        <v>39.68</v>
+        <v>21.376</v>
       </c>
       <c r="D70" s="4">
-        <v>35.072</v>
+        <v>25.216</v>
       </c>
       <c r="E70" s="4">
-        <v>40.704</v>
+        <v>34.56</v>
       </c>
       <c r="F70" s="4">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G70" s="4">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>2925</v>
+        <v>2652</v>
       </c>
       <c r="C3" s="3">
-        <v>1901</v>
+        <v>1850</v>
       </c>
       <c r="D3" s="3">
-        <v>3703</v>
+        <v>3615</v>
       </c>
       <c r="E3" s="3">
-        <v>6889</v>
+        <v>6330</v>
       </c>
       <c r="F3" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G3" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>383.778816</v>
+        <v>348.127232</v>
       </c>
       <c r="C4" s="4">
-        <v>249.561088</v>
+        <v>242.221056</v>
       </c>
       <c r="D4" s="4">
-        <v>485.490688</v>
+        <v>473.956352</v>
       </c>
       <c r="E4" s="4">
-        <v>902.823936</v>
+        <v>829.423616</v>
       </c>
       <c r="F4" s="4">
-        <v>1484.783616</v>
+        <v>1473.24928</v>
       </c>
       <c r="G4" s="4">
-        <v>1749.024768</v>
+        <v>1718.616064</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>340.26</v>
+        <v>375.67</v>
       </c>
       <c r="C5" s="4">
-        <v>1014.41</v>
+        <v>1065.63</v>
       </c>
       <c r="D5" s="4">
-        <v>1069.09</v>
+        <v>1087.76</v>
       </c>
       <c r="E5" s="4">
-        <v>1122.64</v>
+        <v>1161.6</v>
       </c>
       <c r="F5" s="4">
-        <v>1346.92</v>
+        <v>1357.14</v>
       </c>
       <c r="G5" s="4">
-        <v>2382.42</v>
+        <v>2423.09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="C6" s="4">
-        <v>1811</v>
+        <v>1893</v>
       </c>
       <c r="D6" s="4">
-        <v>1926</v>
+        <v>1958</v>
       </c>
       <c r="E6" s="4">
-        <v>2008</v>
+        <v>2114</v>
       </c>
       <c r="F6" s="4">
         <v>3261</v>
       </c>
       <c r="G6" s="4">
-        <v>6194</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,19 +560,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="C7" s="4">
-        <v>1991</v>
+        <v>3130</v>
       </c>
       <c r="D7" s="4">
-        <v>2114</v>
+        <v>2507</v>
       </c>
       <c r="E7" s="4">
-        <v>2737</v>
+        <v>3392</v>
       </c>
       <c r="F7" s="4">
-        <v>3752</v>
+        <v>3818</v>
       </c>
       <c r="G7" s="4">
         <v>8094</v>
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>3712</v>
+        <v>3698</v>
       </c>
       <c r="C12" s="3">
-        <v>32500</v>
+        <v>24600</v>
       </c>
       <c r="D12" s="3">
-        <v>15600</v>
+        <v>51800</v>
       </c>
       <c r="E12" s="3">
-        <v>169000</v>
+        <v>115000</v>
       </c>
       <c r="F12" s="3">
-        <v>229000</v>
+        <v>58200</v>
       </c>
       <c r="G12" s="3">
-        <v>96000</v>
+        <v>269000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>15.204352</v>
+        <v>15.0994944</v>
       </c>
       <c r="C13" s="4">
-        <v>133.169152</v>
+        <v>100.663296</v>
       </c>
       <c r="D13" s="4">
-        <v>63.75342079999999</v>
+        <v>211.812352</v>
       </c>
       <c r="E13" s="4">
-        <v>691.011584</v>
+        <v>472.907776</v>
       </c>
       <c r="F13" s="4">
-        <v>938.47552</v>
+        <v>238.026752</v>
       </c>
       <c r="G13" s="4">
-        <v>397.410304</v>
+        <v>1103.101952</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>268.3537</v>
+        <v>269.13898</v>
       </c>
       <c r="C14" s="4">
-        <v>60.66617</v>
+        <v>72.25129</v>
       </c>
       <c r="D14" s="4">
-        <v>255.57467</v>
+        <v>65.063</v>
       </c>
       <c r="E14" s="4">
-        <v>46.59956</v>
+        <v>53.11331</v>
       </c>
       <c r="F14" s="4">
-        <v>56.31281</v>
+        <v>265.2566</v>
       </c>
       <c r="G14" s="4">
-        <v>324.36518</v>
+        <v>111.89795</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>1614</v>
+        <v>1613.824</v>
       </c>
       <c r="C15" s="4">
-        <v>117.248</v>
+        <v>146.432</v>
       </c>
       <c r="D15" s="4">
-        <v>1482.752</v>
+        <v>138.24</v>
       </c>
       <c r="E15" s="4">
-        <v>102.912</v>
+        <v>122.368</v>
       </c>
       <c r="F15" s="4">
-        <v>148.48</v>
+        <v>1564.672</v>
       </c>
       <c r="G15" s="4">
-        <v>1859.584</v>
+        <v>325.632</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>1745</v>
+        <v>1777.664</v>
       </c>
       <c r="C16" s="4">
-        <v>144.384</v>
+        <v>197.632</v>
       </c>
       <c r="D16" s="4">
-        <v>1613.824</v>
+        <v>175.104</v>
       </c>
       <c r="E16" s="4">
-        <v>134.144</v>
+        <v>166.912</v>
       </c>
       <c r="F16" s="4">
-        <v>209.92</v>
+        <v>1761.28</v>
       </c>
       <c r="G16" s="4">
-        <v>3555.328</v>
+        <v>481.28</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>2370</v>
+        <v>2290</v>
       </c>
       <c r="C21" s="3">
-        <v>4432</v>
+        <v>4511</v>
       </c>
       <c r="D21" s="3">
-        <v>10100</v>
+        <v>9660</v>
       </c>
       <c r="E21" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F21" s="3">
         <v>16400</v>
       </c>
-      <c r="F21" s="3">
-        <v>16100</v>
-      </c>
       <c r="G21" s="3">
-        <v>17500</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>310.378496</v>
+        <v>299.892736</v>
       </c>
       <c r="C22" s="4">
-        <v>580.911104</v>
+        <v>591.3968640000001</v>
       </c>
       <c r="D22" s="4">
-        <v>1319.108608</v>
+        <v>1266.679808</v>
       </c>
       <c r="E22" s="4">
-        <v>2155.872256</v>
+        <v>1854.930944</v>
       </c>
       <c r="F22" s="4">
-        <v>2111.832064</v>
+        <v>2151.677952</v>
       </c>
       <c r="G22" s="4">
-        <v>2287.992832</v>
+        <v>2421.161984</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>355.09</v>
+        <v>370.62</v>
       </c>
       <c r="C23" s="4">
-        <v>333.14</v>
+        <v>329.29</v>
       </c>
       <c r="D23" s="4">
-        <v>200.14</v>
+        <v>229.63</v>
       </c>
       <c r="E23" s="4">
-        <v>148.03</v>
+        <v>147.46</v>
       </c>
       <c r="F23" s="4">
-        <v>221.63</v>
+        <v>232.4</v>
       </c>
       <c r="G23" s="4">
-        <v>386.55</v>
+        <v>353.7</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -832,19 +832,19 @@
         <v>461</v>
       </c>
       <c r="C24" s="4">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D24" s="4">
         <v>379</v>
       </c>
       <c r="E24" s="4">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F24" s="4">
         <v>465</v>
       </c>
       <c r="G24" s="4">
-        <v>635</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>644</v>
+        <v>553</v>
       </c>
       <c r="C25" s="4">
-        <v>1020</v>
+        <v>996</v>
       </c>
       <c r="D25" s="4">
-        <v>1205</v>
+        <v>619</v>
       </c>
       <c r="E25" s="4">
-        <v>742</v>
+        <v>824</v>
       </c>
       <c r="F25" s="4">
-        <v>996</v>
+        <v>1037</v>
       </c>
       <c r="G25" s="4">
-        <v>1287</v>
+        <v>963</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>53000</v>
+        <v>42300</v>
       </c>
       <c r="C30" s="3">
-        <v>153000</v>
+        <v>131000</v>
       </c>
       <c r="D30" s="3">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="E30" s="3">
-        <v>326000</v>
+        <v>303000</v>
       </c>
       <c r="F30" s="3">
-        <v>360000</v>
+        <v>363000</v>
       </c>
       <c r="G30" s="3">
-        <v>416000</v>
+        <v>421000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>217.055232</v>
+        <v>173.01504</v>
       </c>
       <c r="C31" s="4">
-        <v>625.999872</v>
+        <v>534.77376</v>
       </c>
       <c r="D31" s="4">
-        <v>1065.353216</v>
+        <v>861.929472</v>
       </c>
       <c r="E31" s="4">
-        <v>1335.885824</v>
+        <v>1241.513984</v>
       </c>
       <c r="F31" s="4">
-        <v>1475.346432</v>
+        <v>1487.929344</v>
       </c>
       <c r="G31" s="4">
-        <v>1703.936</v>
+        <v>1723.858944</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,18 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>16.75</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+        <v>21.2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>12.12</v>
+      </c>
       <c r="E32" s="4">
-        <v>12.56</v>
+        <v>12.8</v>
       </c>
       <c r="F32" s="4">
-        <v>19.43</v>
+        <v>19.77</v>
       </c>
       <c r="G32" s="4">
-        <v>28.82</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -971,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E33" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F33" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G33" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -994,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="4">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4">
         <v>58</v>
       </c>
       <c r="F34" s="4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G34" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1048,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>8982</v>
+        <v>10700</v>
       </c>
       <c r="C39" s="3">
-        <v>17400</v>
+        <v>4394</v>
       </c>
       <c r="D39" s="3">
-        <v>26400</v>
+        <v>7098</v>
       </c>
       <c r="E39" s="3">
-        <v>8062</v>
+        <v>7160</v>
       </c>
       <c r="F39" s="3">
-        <v>8520</v>
+        <v>7560</v>
       </c>
       <c r="G39" s="3">
-        <v>8489</v>
+        <v>8114</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1071,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1177.550848</v>
+        <v>1397.751808</v>
       </c>
       <c r="C40" s="4">
-        <v>2274.361344</v>
+        <v>575.668224</v>
       </c>
       <c r="D40" s="4">
-        <v>3463.446528</v>
+        <v>930.086912</v>
       </c>
       <c r="E40" s="4">
-        <v>1056.964608</v>
+        <v>938.47552</v>
       </c>
       <c r="F40" s="4">
-        <v>1116.73344</v>
+        <v>990.90432</v>
       </c>
       <c r="G40" s="4">
-        <v>1112.539136</v>
+        <v>1063.256064</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1094,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>109.9</v>
+        <v>92.47</v>
       </c>
       <c r="C41" s="4">
-        <v>113.1</v>
+        <v>412.15</v>
       </c>
       <c r="D41" s="4">
-        <v>142.22</v>
+        <v>548.05</v>
       </c>
       <c r="E41" s="4">
-        <v>904.84</v>
+        <v>1018.02</v>
       </c>
       <c r="F41" s="4">
-        <v>1807.13</v>
+        <v>1984.3</v>
       </c>
       <c r="G41" s="4">
-        <v>3652.12</v>
+        <v>3733.28</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1117,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C42" s="4">
-        <v>379</v>
+        <v>1827</v>
       </c>
       <c r="D42" s="4">
-        <v>424</v>
+        <v>1762</v>
       </c>
       <c r="E42" s="4">
-        <v>2606</v>
+        <v>2999</v>
       </c>
       <c r="F42" s="4">
-        <v>4883</v>
+        <v>5407</v>
       </c>
       <c r="G42" s="4">
-        <v>9634</v>
+        <v>10159</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1140,22 +1144,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="C43" s="4">
-        <v>510</v>
+        <v>2999</v>
       </c>
       <c r="D43" s="4">
-        <v>523</v>
+        <v>2024</v>
       </c>
       <c r="E43" s="4">
-        <v>3752</v>
+        <v>4146</v>
       </c>
       <c r="F43" s="4">
-        <v>5735</v>
+        <v>6849</v>
       </c>
       <c r="G43" s="4">
-        <v>12780</v>
+        <v>13173</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1194,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>118000</v>
+        <v>131000</v>
       </c>
       <c r="C48" s="3">
-        <v>154000</v>
+        <v>158000</v>
       </c>
       <c r="D48" s="3">
-        <v>216000</v>
+        <v>207000</v>
       </c>
       <c r="E48" s="3">
-        <v>276000</v>
+        <v>246000</v>
       </c>
       <c r="F48" s="3">
-        <v>267000</v>
+        <v>246000</v>
       </c>
       <c r="G48" s="3">
-        <v>283000</v>
+        <v>246000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1217,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>484.442112</v>
+        <v>534.77376</v>
       </c>
       <c r="C49" s="4">
-        <v>630.194176</v>
+        <v>644.87424</v>
       </c>
       <c r="D49" s="4">
-        <v>883.949568</v>
+        <v>848.297984</v>
       </c>
       <c r="E49" s="4">
-        <v>1129.316352</v>
+        <v>1006.63296</v>
       </c>
       <c r="F49" s="4">
-        <v>1092.616192</v>
+        <v>1009.778688</v>
       </c>
       <c r="G49" s="4">
-        <v>1157.627904</v>
+        <v>1005.584384</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1240,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>7.88936</v>
+        <v>7.14975</v>
       </c>
       <c r="C50" s="4">
-        <v>10.4049</v>
+        <v>10.04875</v>
       </c>
       <c r="D50" s="4">
-        <v>17.19253</v>
+        <v>17.99282</v>
       </c>
       <c r="E50" s="4">
-        <v>26.61091</v>
+        <v>29.62835</v>
       </c>
       <c r="F50" s="4">
-        <v>56.72495</v>
+        <v>60.65716</v>
       </c>
       <c r="G50" s="4">
-        <v>110.80025</v>
+        <v>124.11287</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1263,22 +1267,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="C51" s="4">
-        <v>2.64</v>
+        <v>2.224</v>
       </c>
       <c r="D51" s="4">
-        <v>2.928</v>
+        <v>2.768</v>
       </c>
       <c r="E51" s="4">
-        <v>2.96</v>
+        <v>3.056</v>
       </c>
       <c r="F51" s="4">
-        <v>3.056</v>
+        <v>2.992</v>
       </c>
       <c r="G51" s="4">
-        <v>3.056</v>
+        <v>2.992</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1286,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>171.008</v>
+        <v>144.384</v>
       </c>
       <c r="C52" s="4">
-        <v>175.104</v>
+        <v>162.816</v>
       </c>
       <c r="D52" s="4">
-        <v>399.36</v>
+        <v>514.048</v>
       </c>
       <c r="E52" s="4">
-        <v>1482.752</v>
+        <v>1597.44</v>
       </c>
       <c r="F52" s="4">
-        <v>2899.968</v>
+        <v>3227.648</v>
       </c>
       <c r="G52" s="4">
-        <v>6651.904</v>
+        <v>7241.728</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1340,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>2056</v>
+        <v>2503</v>
       </c>
       <c r="C57" s="3">
-        <v>4357</v>
+        <v>4452</v>
       </c>
       <c r="D57" s="3">
-        <v>9372</v>
+        <v>8827</v>
       </c>
       <c r="E57" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="F57" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="G57" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1363,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>269.484032</v>
+        <v>328.204288</v>
       </c>
       <c r="C58" s="4">
-        <v>571.47392</v>
+        <v>584.056832</v>
       </c>
       <c r="D58" s="4">
-        <v>1228.931072</v>
+        <v>1156.579328</v>
       </c>
       <c r="E58" s="4">
-        <v>1583.34976</v>
+        <v>1509.94944</v>
       </c>
       <c r="F58" s="4">
-        <v>1592.786944</v>
+        <v>1609.56416</v>
       </c>
       <c r="G58" s="4">
-        <v>1637.875712</v>
+        <v>1625.2928</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1386,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>394.82</v>
+        <v>316.83</v>
       </c>
       <c r="C59" s="4">
-        <v>311.47</v>
+        <v>288.98</v>
       </c>
       <c r="D59" s="4">
-        <v>147.9</v>
+        <v>179.2</v>
       </c>
       <c r="E59" s="4">
-        <v>127.74</v>
+        <v>151.2</v>
       </c>
       <c r="F59" s="4">
-        <v>190.79</v>
+        <v>219.69</v>
       </c>
       <c r="G59" s="4">
-        <v>356.85</v>
+        <v>352.64</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1409,22 +1413,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C60" s="4">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D60" s="4">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="E60" s="4">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="F60" s="4">
-        <v>318</v>
+        <v>445</v>
       </c>
       <c r="G60" s="4">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1432,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C61" s="4">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D61" s="4">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="E61" s="4">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F61" s="4">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="G61" s="4">
-        <v>693</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1486,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>72000</v>
+        <v>75200</v>
       </c>
       <c r="C66" s="3">
-        <v>155000</v>
+        <v>151000</v>
       </c>
       <c r="D66" s="3">
-        <v>223000</v>
+        <v>224000</v>
       </c>
       <c r="E66" s="3">
-        <v>286000</v>
+        <v>284000</v>
       </c>
       <c r="F66" s="3">
-        <v>299000</v>
+        <v>307000</v>
       </c>
       <c r="G66" s="3">
-        <v>337000</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1509,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>294.649856</v>
+        <v>308.281344</v>
       </c>
       <c r="C67" s="4">
-        <v>636.485632</v>
+        <v>617.611264</v>
       </c>
       <c r="D67" s="4">
-        <v>914.3582720000001</v>
+        <v>917.504</v>
       </c>
       <c r="E67" s="4">
-        <v>1173.356544</v>
+        <v>1162.870784</v>
       </c>
       <c r="F67" s="4">
-        <v>1224.736768</v>
+        <v>1256.194048</v>
       </c>
       <c r="G67" s="4">
-        <v>1378.87744</v>
+        <v>1427.111936</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1532,18 +1536,18 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>10.93</v>
+        <v>10.52</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4">
-        <v>10.82</v>
+        <v>10.72</v>
       </c>
       <c r="F68" s="4">
-        <v>18.23</v>
+        <v>18.08</v>
       </c>
       <c r="G68" s="4">
-        <v>28.22</v>
+        <v>27.93</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1551,22 +1555,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69" s="4">
         <v>15</v>
       </c>
       <c r="F69" s="4">
+        <v>48</v>
+      </c>
+      <c r="G69" s="4">
         <v>49</v>
-      </c>
-      <c r="G69" s="4">
-        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1574,22 +1578,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C70" s="4">
         <v>36</v>
       </c>
       <c r="D70" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E70" s="4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F70" s="4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G70" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>2652</v>
+        <v>956</v>
       </c>
       <c r="C3" s="3">
-        <v>1850</v>
+        <v>2007</v>
       </c>
       <c r="D3" s="3">
-        <v>3615</v>
+        <v>3771</v>
       </c>
       <c r="E3" s="3">
-        <v>6330</v>
+        <v>8551</v>
       </c>
       <c r="F3" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="G3" s="3">
-        <v>13100</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>348.127232</v>
+        <v>125.82912</v>
       </c>
       <c r="C4" s="4">
-        <v>242.221056</v>
+        <v>263.192576</v>
       </c>
       <c r="D4" s="4">
-        <v>473.956352</v>
+        <v>493.879296</v>
       </c>
       <c r="E4" s="4">
-        <v>829.423616</v>
+        <v>1120.927744</v>
       </c>
       <c r="F4" s="4">
-        <v>1473.24928</v>
+        <v>1477.443584</v>
       </c>
       <c r="G4" s="4">
-        <v>1718.616064</v>
+        <v>4516.216832</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>375.67</v>
+        <v>1044.61</v>
       </c>
       <c r="C5" s="4">
-        <v>1065.63</v>
+        <v>974.4400000000001</v>
       </c>
       <c r="D5" s="4">
-        <v>1087.76</v>
+        <v>1041.58</v>
       </c>
       <c r="E5" s="4">
-        <v>1161.6</v>
+        <v>846.63</v>
       </c>
       <c r="F5" s="4">
-        <v>1357.14</v>
+        <v>1359.72</v>
       </c>
       <c r="G5" s="4">
-        <v>2423.09</v>
+        <v>915.13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,22 +537,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>668</v>
+        <v>1844</v>
       </c>
       <c r="C6" s="4">
-        <v>1893</v>
+        <v>1778</v>
       </c>
       <c r="D6" s="4">
-        <v>1958</v>
+        <v>1860</v>
       </c>
       <c r="E6" s="4">
-        <v>2114</v>
+        <v>1991</v>
       </c>
       <c r="F6" s="4">
-        <v>3261</v>
+        <v>2933</v>
       </c>
       <c r="G6" s="4">
-        <v>6128</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>734</v>
+        <v>3195</v>
       </c>
       <c r="C7" s="4">
-        <v>3130</v>
+        <v>1909</v>
       </c>
       <c r="D7" s="4">
-        <v>2507</v>
+        <v>2040</v>
       </c>
       <c r="E7" s="4">
-        <v>3392</v>
+        <v>2278</v>
       </c>
       <c r="F7" s="4">
-        <v>3818</v>
+        <v>4047</v>
       </c>
       <c r="G7" s="4">
-        <v>8094</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>3698</v>
+        <v>4460</v>
       </c>
       <c r="C12" s="3">
-        <v>24600</v>
+        <v>7964</v>
       </c>
       <c r="D12" s="3">
-        <v>51800</v>
+        <v>16800</v>
       </c>
       <c r="E12" s="3">
-        <v>115000</v>
+        <v>30800</v>
       </c>
       <c r="F12" s="3">
-        <v>58200</v>
+        <v>66300</v>
       </c>
       <c r="G12" s="3">
-        <v>269000</v>
+        <v>85800</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>15.0994944</v>
+        <v>18.2452224</v>
       </c>
       <c r="C13" s="4">
-        <v>100.663296</v>
+        <v>32.6107136</v>
       </c>
       <c r="D13" s="4">
-        <v>211.812352</v>
+        <v>68.5768704</v>
       </c>
       <c r="E13" s="4">
-        <v>472.907776</v>
+        <v>125.82912</v>
       </c>
       <c r="F13" s="4">
-        <v>238.026752</v>
+        <v>271.581184</v>
       </c>
       <c r="G13" s="4">
-        <v>1103.101952</v>
+        <v>351.27296</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>269.13898</v>
+        <v>223.97017</v>
       </c>
       <c r="C14" s="4">
-        <v>72.25129</v>
+        <v>247.32561</v>
       </c>
       <c r="D14" s="4">
-        <v>65.063</v>
+        <v>237.47531</v>
       </c>
       <c r="E14" s="4">
-        <v>53.11331</v>
+        <v>258.67722</v>
       </c>
       <c r="F14" s="4">
-        <v>265.2566</v>
+        <v>240.26036</v>
       </c>
       <c r="G14" s="4">
-        <v>111.89795</v>
+        <v>371.73891</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,22 +683,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>1613.824</v>
+        <v>1564.672</v>
       </c>
       <c r="C15" s="4">
-        <v>146.432</v>
+        <v>1499.136</v>
       </c>
       <c r="D15" s="4">
-        <v>138.24</v>
+        <v>1482.752</v>
       </c>
       <c r="E15" s="4">
-        <v>122.368</v>
+        <v>1515.52</v>
       </c>
       <c r="F15" s="4">
-        <v>1564.672</v>
+        <v>1548.288</v>
       </c>
       <c r="G15" s="4">
-        <v>325.632</v>
+        <v>1810.432</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -706,22 +706,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>1777.664</v>
+        <v>1679.36</v>
       </c>
       <c r="C16" s="4">
-        <v>197.632</v>
+        <v>1662.976</v>
       </c>
       <c r="D16" s="4">
-        <v>175.104</v>
+        <v>1613.824</v>
       </c>
       <c r="E16" s="4">
-        <v>166.912</v>
+        <v>1679.36</v>
       </c>
       <c r="F16" s="4">
-        <v>1761.28</v>
+        <v>1744.896</v>
       </c>
       <c r="G16" s="4">
-        <v>481.28</v>
+        <v>3293.184</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>2290</v>
+        <v>7937</v>
       </c>
       <c r="C21" s="3">
-        <v>4511</v>
+        <v>10900</v>
       </c>
       <c r="D21" s="3">
-        <v>9660</v>
+        <v>16200</v>
       </c>
       <c r="E21" s="3">
-        <v>14100</v>
+        <v>17100</v>
       </c>
       <c r="F21" s="3">
-        <v>16400</v>
+        <v>17600</v>
       </c>
       <c r="G21" s="3">
-        <v>18500</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>299.892736</v>
+        <v>1040.187392</v>
       </c>
       <c r="C22" s="4">
-        <v>591.3968640000001</v>
+        <v>1428.160512</v>
       </c>
       <c r="D22" s="4">
-        <v>1266.679808</v>
+        <v>2122.317824</v>
       </c>
       <c r="E22" s="4">
-        <v>1854.930944</v>
+        <v>2246.049792</v>
       </c>
       <c r="F22" s="4">
-        <v>2151.677952</v>
+        <v>2312.11008</v>
       </c>
       <c r="G22" s="4">
-        <v>2421.161984</v>
+        <v>2378.170368</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>370.62</v>
+        <v>66.55</v>
       </c>
       <c r="C23" s="4">
-        <v>329.29</v>
+        <v>64.92</v>
       </c>
       <c r="D23" s="4">
-        <v>229.63</v>
+        <v>69.94</v>
       </c>
       <c r="E23" s="4">
-        <v>147.46</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="F23" s="4">
-        <v>232.4</v>
+        <v>163.22</v>
       </c>
       <c r="G23" s="4">
-        <v>353.7</v>
+        <v>343.23</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -829,19 +829,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>461</v>
+        <v>112</v>
       </c>
       <c r="C24" s="4">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="D24" s="4">
-        <v>379</v>
+        <v>90</v>
       </c>
       <c r="E24" s="4">
-        <v>375</v>
+        <v>123</v>
       </c>
       <c r="F24" s="4">
-        <v>465</v>
+        <v>225</v>
       </c>
       <c r="G24" s="4">
         <v>486</v>
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>553</v>
+        <v>235</v>
       </c>
       <c r="C25" s="4">
-        <v>996</v>
+        <v>208</v>
       </c>
       <c r="D25" s="4">
-        <v>619</v>
+        <v>155</v>
       </c>
       <c r="E25" s="4">
-        <v>824</v>
+        <v>217</v>
       </c>
       <c r="F25" s="4">
+        <v>330</v>
+      </c>
+      <c r="G25" s="4">
         <v>1037</v>
-      </c>
-      <c r="G25" s="4">
-        <v>963</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>42300</v>
+        <v>106000</v>
       </c>
       <c r="C30" s="3">
-        <v>131000</v>
+        <v>197000</v>
       </c>
       <c r="D30" s="3">
-        <v>210000</v>
+        <v>311000</v>
       </c>
       <c r="E30" s="3">
-        <v>303000</v>
+        <v>406000</v>
       </c>
       <c r="F30" s="3">
-        <v>363000</v>
+        <v>401000</v>
       </c>
       <c r="G30" s="3">
-        <v>421000</v>
+        <v>437000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,45 +929,39 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>173.01504</v>
+        <v>436.207616</v>
       </c>
       <c r="C31" s="4">
-        <v>534.77376</v>
+        <v>808.452096</v>
       </c>
       <c r="D31" s="4">
-        <v>861.929472</v>
+        <v>1275.068416</v>
       </c>
       <c r="E31" s="4">
-        <v>1241.513984</v>
+        <v>1665.138688</v>
       </c>
       <c r="F31" s="4">
-        <v>1487.929344</v>
+        <v>1642.070016</v>
       </c>
       <c r="G31" s="4">
-        <v>1723.858944</v>
+        <v>1788.870656</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="C32" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="D32" s="4">
-        <v>12.12</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="4">
-        <v>12.8</v>
+        <v>10.36</v>
       </c>
       <c r="F32" s="4">
-        <v>19.77</v>
+        <v>16.04</v>
       </c>
       <c r="G32" s="4">
-        <v>28.64</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -975,22 +969,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C33" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D33" s="4">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E33" s="4">
-        <v>33</v>
+        <v>14.4</v>
       </c>
       <c r="F33" s="4">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G33" s="4">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -998,22 +992,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C34" s="4">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D34" s="4">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E34" s="4">
-        <v>58</v>
+        <v>16.32</v>
       </c>
       <c r="F34" s="4">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G34" s="4">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1052,22 +1046,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>10700</v>
+        <v>20500</v>
       </c>
       <c r="C39" s="3">
-        <v>4394</v>
+        <v>28800</v>
       </c>
       <c r="D39" s="3">
-        <v>7098</v>
+        <v>43100</v>
       </c>
       <c r="E39" s="3">
-        <v>7160</v>
+        <v>42000</v>
       </c>
       <c r="F39" s="3">
-        <v>7560</v>
+        <v>38600</v>
       </c>
       <c r="G39" s="3">
-        <v>8114</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1075,22 +1069,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1397.751808</v>
+        <v>2684.35456</v>
       </c>
       <c r="C40" s="4">
-        <v>575.668224</v>
+        <v>3781.165056</v>
       </c>
       <c r="D40" s="4">
-        <v>930.086912</v>
+        <v>5650.776064</v>
       </c>
       <c r="E40" s="4">
-        <v>938.47552</v>
+        <v>5506.072576</v>
       </c>
       <c r="F40" s="4">
-        <v>990.90432</v>
+        <v>5064.62208</v>
       </c>
       <c r="G40" s="4">
-        <v>1063.256064</v>
+        <v>4830.789632</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1092,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>92.47</v>
+        <v>47.97</v>
       </c>
       <c r="C41" s="4">
-        <v>412.15</v>
+        <v>66.77</v>
       </c>
       <c r="D41" s="4">
-        <v>548.05</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="E41" s="4">
-        <v>1018.02</v>
+        <v>183.59</v>
       </c>
       <c r="F41" s="4">
-        <v>1984.3</v>
+        <v>403.84</v>
       </c>
       <c r="G41" s="4">
-        <v>3733.28</v>
+        <v>853.66</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1115,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4">
-        <v>1827</v>
+        <v>151</v>
       </c>
       <c r="D42" s="4">
-        <v>1762</v>
+        <v>306</v>
       </c>
       <c r="E42" s="4">
-        <v>2999</v>
+        <v>529</v>
       </c>
       <c r="F42" s="4">
-        <v>5407</v>
+        <v>947</v>
       </c>
       <c r="G42" s="4">
-        <v>10159</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,22 +1138,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>379</v>
+        <v>215</v>
       </c>
       <c r="C43" s="4">
-        <v>2999</v>
+        <v>297</v>
       </c>
       <c r="D43" s="4">
-        <v>2024</v>
+        <v>506</v>
       </c>
       <c r="E43" s="4">
-        <v>4146</v>
+        <v>627</v>
       </c>
       <c r="F43" s="4">
-        <v>6849</v>
+        <v>1057</v>
       </c>
       <c r="G43" s="4">
-        <v>13173</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1198,22 +1192,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>131000</v>
+        <v>655000</v>
       </c>
       <c r="C48" s="3">
-        <v>158000</v>
+        <v>819000</v>
       </c>
       <c r="D48" s="3">
-        <v>207000</v>
+        <v>1049000</v>
       </c>
       <c r="E48" s="3">
-        <v>246000</v>
+        <v>1036000</v>
       </c>
       <c r="F48" s="3">
-        <v>246000</v>
+        <v>1051000</v>
       </c>
       <c r="G48" s="3">
-        <v>246000</v>
+        <v>1074000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,22 +1215,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>534.77376</v>
+        <v>2684.35456</v>
       </c>
       <c r="C49" s="4">
-        <v>644.87424</v>
+        <v>3355.4432</v>
       </c>
       <c r="D49" s="4">
-        <v>848.297984</v>
+        <v>4294.967296</v>
       </c>
       <c r="E49" s="4">
-        <v>1006.63296</v>
+        <v>4243.587072</v>
       </c>
       <c r="F49" s="4">
-        <v>1009.778688</v>
+        <v>4303.355904</v>
       </c>
       <c r="G49" s="4">
-        <v>1005.584384</v>
+        <v>4400.873472</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1238,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>7.14975</v>
+        <v>1.41504</v>
       </c>
       <c r="C50" s="4">
-        <v>10.04875</v>
+        <v>2.03072</v>
       </c>
       <c r="D50" s="4">
-        <v>17.99282</v>
+        <v>3.5334</v>
       </c>
       <c r="E50" s="4">
-        <v>29.62835</v>
+        <v>7.40739</v>
       </c>
       <c r="F50" s="4">
-        <v>60.65716</v>
+        <v>14.11403</v>
       </c>
       <c r="G50" s="4">
-        <v>124.11287</v>
+        <v>28.67039</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1267,22 +1261,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>2.16</v>
+        <v>0.49</v>
       </c>
       <c r="C51" s="4">
-        <v>2.224</v>
+        <v>0.47</v>
       </c>
       <c r="D51" s="4">
-        <v>2.768</v>
+        <v>0.498</v>
       </c>
       <c r="E51" s="4">
-        <v>3.056</v>
+        <v>0.51</v>
       </c>
       <c r="F51" s="4">
-        <v>2.992</v>
+        <v>0.524</v>
       </c>
       <c r="G51" s="4">
-        <v>2.992</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1284,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>144.384</v>
+        <v>61.184</v>
       </c>
       <c r="C52" s="4">
-        <v>162.816</v>
+        <v>64.768</v>
       </c>
       <c r="D52" s="4">
-        <v>514.048</v>
+        <v>160.768</v>
       </c>
       <c r="E52" s="4">
-        <v>1597.44</v>
+        <v>432.128</v>
       </c>
       <c r="F52" s="4">
-        <v>3227.648</v>
+        <v>815.104</v>
       </c>
       <c r="G52" s="4">
-        <v>7241.728</v>
+        <v>1630.208</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,22 +1338,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>2503</v>
+        <v>6481</v>
       </c>
       <c r="C57" s="3">
-        <v>4452</v>
+        <v>9183</v>
       </c>
       <c r="D57" s="3">
-        <v>8827</v>
+        <v>11200</v>
       </c>
       <c r="E57" s="3">
-        <v>11500</v>
+        <v>12700</v>
       </c>
       <c r="F57" s="3">
         <v>12300</v>
       </c>
       <c r="G57" s="3">
-        <v>12400</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1361,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>328.204288</v>
+        <v>849.34656</v>
       </c>
       <c r="C58" s="4">
-        <v>584.056832</v>
+        <v>1203.765248</v>
       </c>
       <c r="D58" s="4">
-        <v>1156.579328</v>
+        <v>1471.152128</v>
       </c>
       <c r="E58" s="4">
-        <v>1509.94944</v>
+        <v>1659.895808</v>
       </c>
       <c r="F58" s="4">
-        <v>1609.56416</v>
+        <v>1615.855616</v>
       </c>
       <c r="G58" s="4">
-        <v>1625.2928</v>
+        <v>1712.324608</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1384,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>316.83</v>
+        <v>66.89</v>
       </c>
       <c r="C59" s="4">
-        <v>288.98</v>
+        <v>62.45</v>
       </c>
       <c r="D59" s="4">
-        <v>179.2</v>
+        <v>69.42</v>
       </c>
       <c r="E59" s="4">
-        <v>151.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F59" s="4">
-        <v>219.69</v>
+        <v>164.1</v>
       </c>
       <c r="G59" s="4">
-        <v>352.64</v>
+        <v>343.27</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1413,22 +1407,22 @@
         <v>4</v>
       </c>
       <c r="B60" s="4">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="C60" s="4">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="D60" s="4">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="E60" s="4">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="F60" s="4">
-        <v>445</v>
+        <v>210</v>
       </c>
       <c r="G60" s="4">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1430,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>519</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4">
-        <v>457</v>
+        <v>108</v>
       </c>
       <c r="D61" s="4">
-        <v>424</v>
+        <v>90</v>
       </c>
       <c r="E61" s="4">
-        <v>424</v>
+        <v>121</v>
       </c>
       <c r="F61" s="4">
-        <v>502</v>
+        <v>258</v>
       </c>
       <c r="G61" s="4">
-        <v>668</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1484,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>75200</v>
+        <v>96900</v>
       </c>
       <c r="C66" s="3">
-        <v>151000</v>
+        <v>178000</v>
       </c>
       <c r="D66" s="3">
-        <v>224000</v>
+        <v>226000</v>
       </c>
       <c r="E66" s="3">
-        <v>284000</v>
+        <v>295000</v>
       </c>
       <c r="F66" s="3">
-        <v>307000</v>
+        <v>329000</v>
       </c>
       <c r="G66" s="3">
-        <v>348000</v>
+        <v>359000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,41 +1507,37 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>308.281344</v>
+        <v>397.410304</v>
       </c>
       <c r="C67" s="4">
-        <v>617.611264</v>
+        <v>729.808896</v>
       </c>
       <c r="D67" s="4">
-        <v>917.504</v>
+        <v>925.892608</v>
       </c>
       <c r="E67" s="4">
-        <v>1162.870784</v>
+        <v>1206.910976</v>
       </c>
       <c r="F67" s="4">
-        <v>1256.194048</v>
+        <v>1345.323008</v>
       </c>
       <c r="G67" s="4">
-        <v>1427.111936</v>
+        <v>1470.103552</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="4">
-        <v>10.52</v>
-      </c>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4">
-        <v>10.72</v>
-      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4">
-        <v>18.08</v>
+        <v>15.23</v>
       </c>
       <c r="G68" s="4">
-        <v>27.93</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1555,22 +1545,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>31</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="C69" s="4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D69" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E69" s="4">
-        <v>15</v>
+        <v>13.12</v>
       </c>
       <c r="F69" s="4">
-        <v>48</v>
+        <v>28.8</v>
       </c>
       <c r="G69" s="4">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1578,22 +1568,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>40</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="C70" s="4">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D70" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E70" s="4">
-        <v>46</v>
+        <v>14.784</v>
       </c>
       <c r="F70" s="4">
-        <v>77</v>
+        <v>45.312</v>
       </c>
       <c r="G70" s="4">
-        <v>121</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>8393</v>
+        <v>7062</v>
       </c>
       <c r="C3" s="3">
-        <v>16500</v>
+        <v>13900</v>
       </c>
       <c r="D3" s="3">
-        <v>3740</v>
+        <v>22300</v>
       </c>
       <c r="E3" s="3">
-        <v>9132</v>
+        <v>25800</v>
       </c>
       <c r="F3" s="3">
-        <v>12700</v>
+        <v>32500</v>
       </c>
       <c r="G3" s="3">
-        <v>13000</v>
+        <v>29300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4446</v>
+        <v>13300</v>
       </c>
       <c r="C8" s="3">
-        <v>61000</v>
+        <v>26400</v>
       </c>
       <c r="D8" s="3">
-        <v>125000</v>
+        <v>52700</v>
       </c>
       <c r="E8" s="3">
-        <v>158000</v>
+        <v>140000</v>
       </c>
       <c r="F8" s="3">
-        <v>250000</v>
+        <v>192000</v>
       </c>
       <c r="G8" s="3">
-        <v>102000</v>
+        <v>181000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>8462</v>
+        <v>4011</v>
       </c>
       <c r="C13" s="3">
-        <v>11400</v>
+        <v>5067</v>
       </c>
       <c r="D13" s="3">
-        <v>14100</v>
+        <v>5506</v>
       </c>
       <c r="E13" s="3">
-        <v>16600</v>
+        <v>5817</v>
       </c>
       <c r="F13" s="3">
-        <v>18300</v>
+        <v>5673</v>
       </c>
       <c r="G13" s="3">
-        <v>17800</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>115000</v>
+        <v>117000</v>
       </c>
       <c r="C18" s="3">
         <v>201000</v>
       </c>
       <c r="D18" s="3">
-        <v>288000</v>
+        <v>294000</v>
       </c>
       <c r="E18" s="3">
-        <v>345000</v>
+        <v>175000</v>
       </c>
       <c r="F18" s="3">
-        <v>388000</v>
+        <v>129000</v>
       </c>
       <c r="G18" s="3">
-        <v>442000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>15100</v>
+        <v>3343</v>
       </c>
       <c r="C23" s="3">
-        <v>20500</v>
+        <v>4895</v>
       </c>
       <c r="D23" s="3">
-        <v>25900</v>
+        <v>8696</v>
       </c>
       <c r="E23" s="3">
-        <v>6849</v>
+        <v>11400</v>
       </c>
       <c r="F23" s="3">
-        <v>7941</v>
+        <v>10000</v>
       </c>
       <c r="G23" s="3">
-        <v>13200</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
+        <v>112000</v>
+      </c>
+      <c r="C28" s="3">
         <v>135000</v>
       </c>
-      <c r="C28" s="3">
-        <v>131000</v>
-      </c>
       <c r="D28" s="3">
-        <v>248000</v>
+        <v>245000</v>
       </c>
       <c r="E28" s="3">
-        <v>262000</v>
+        <v>344000</v>
       </c>
       <c r="F28" s="3">
-        <v>257000</v>
+        <v>353000</v>
       </c>
       <c r="G28" s="3">
-        <v>265000</v>
+        <v>502000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>6781</v>
+        <v>2861</v>
       </c>
       <c r="C33" s="3">
-        <v>9752</v>
+        <v>3155</v>
       </c>
       <c r="D33" s="3">
-        <v>11100</v>
+        <v>3133</v>
       </c>
       <c r="E33" s="3">
-        <v>12600</v>
+        <v>3253</v>
       </c>
       <c r="F33" s="3">
-        <v>12800</v>
+        <v>3392</v>
       </c>
       <c r="G33" s="3">
-        <v>13000</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>95300</v>
+        <v>99900</v>
       </c>
       <c r="C38" s="3">
-        <v>187000</v>
+        <v>188000</v>
       </c>
       <c r="D38" s="3">
-        <v>237000</v>
+        <v>278000</v>
       </c>
       <c r="E38" s="3">
-        <v>293000</v>
+        <v>401000</v>
       </c>
       <c r="F38" s="3">
-        <v>320000</v>
+        <v>456000</v>
       </c>
       <c r="G38" s="3">
-        <v>360000</v>
+        <v>91300</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>7062</v>
+        <v>963</v>
       </c>
       <c r="C3" s="3">
-        <v>13900</v>
+        <v>1913</v>
       </c>
       <c r="D3" s="3">
-        <v>22300</v>
+        <v>3855</v>
       </c>
       <c r="E3" s="3">
-        <v>25800</v>
+        <v>10300</v>
       </c>
       <c r="F3" s="3">
-        <v>32500</v>
+        <v>11600</v>
       </c>
       <c r="G3" s="3">
-        <v>29300</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>13300</v>
+        <v>8246</v>
       </c>
       <c r="C8" s="3">
-        <v>26400</v>
+        <v>14500</v>
       </c>
       <c r="D8" s="3">
-        <v>52700</v>
+        <v>27600</v>
       </c>
       <c r="E8" s="3">
-        <v>140000</v>
+        <v>55800</v>
       </c>
       <c r="F8" s="3">
-        <v>192000</v>
+        <v>98500</v>
       </c>
       <c r="G8" s="3">
-        <v>181000</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>4011</v>
+        <v>7211</v>
       </c>
       <c r="C13" s="3">
-        <v>5067</v>
+        <v>12300</v>
       </c>
       <c r="D13" s="3">
-        <v>5506</v>
+        <v>15800</v>
       </c>
       <c r="E13" s="3">
-        <v>5817</v>
+        <v>18300</v>
       </c>
       <c r="F13" s="3">
-        <v>5673</v>
+        <v>19100</v>
       </c>
       <c r="G13" s="3">
-        <v>4843</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>117000</v>
+        <v>119000</v>
       </c>
       <c r="C18" s="3">
-        <v>201000</v>
+        <v>188000</v>
       </c>
       <c r="D18" s="3">
-        <v>294000</v>
+        <v>278000</v>
       </c>
       <c r="E18" s="3">
-        <v>175000</v>
+        <v>357000</v>
       </c>
       <c r="F18" s="3">
-        <v>129000</v>
+        <v>401000</v>
       </c>
       <c r="G18" s="3">
-        <v>130000</v>
+        <v>468000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3343</v>
+        <v>3190</v>
       </c>
       <c r="C23" s="3">
-        <v>4895</v>
+        <v>4179</v>
       </c>
       <c r="D23" s="3">
-        <v>8696</v>
+        <v>7627</v>
       </c>
       <c r="E23" s="3">
-        <v>11400</v>
+        <v>7827</v>
       </c>
       <c r="F23" s="3">
-        <v>10000</v>
+        <v>8255</v>
       </c>
       <c r="G23" s="3">
-        <v>14900</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>112000</v>
+        <v>125000</v>
       </c>
       <c r="C28" s="3">
         <v>135000</v>
       </c>
       <c r="D28" s="3">
-        <v>245000</v>
+        <v>226000</v>
       </c>
       <c r="E28" s="3">
-        <v>344000</v>
+        <v>256000</v>
       </c>
       <c r="F28" s="3">
-        <v>353000</v>
+        <v>279000</v>
       </c>
       <c r="G28" s="3">
-        <v>502000</v>
+        <v>253000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>2861</v>
+        <v>7501</v>
       </c>
       <c r="C33" s="3">
-        <v>3155</v>
+        <v>10100</v>
       </c>
       <c r="D33" s="3">
-        <v>3133</v>
+        <v>11700</v>
       </c>
       <c r="E33" s="3">
-        <v>3253</v>
+        <v>12900</v>
       </c>
       <c r="F33" s="3">
-        <v>3392</v>
+        <v>13600</v>
       </c>
       <c r="G33" s="3">
-        <v>3663</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>99900</v>
+        <v>115000</v>
       </c>
       <c r="C38" s="3">
-        <v>188000</v>
+        <v>189000</v>
       </c>
       <c r="D38" s="3">
-        <v>278000</v>
+        <v>257000</v>
       </c>
       <c r="E38" s="3">
-        <v>401000</v>
+        <v>305000</v>
       </c>
       <c r="F38" s="3">
-        <v>456000</v>
+        <v>356000</v>
       </c>
       <c r="G38" s="3">
-        <v>91300</v>
+        <v>418000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="C3" s="3">
-        <v>1913</v>
+        <v>1925</v>
       </c>
       <c r="D3" s="3">
-        <v>3855</v>
+        <v>3680</v>
       </c>
       <c r="E3" s="3">
-        <v>10300</v>
+        <v>8596</v>
       </c>
       <c r="F3" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="G3" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>8246</v>
+        <v>8082</v>
       </c>
       <c r="C8" s="3">
-        <v>14500</v>
+        <v>12900</v>
       </c>
       <c r="D8" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="E8" s="3">
-        <v>55800</v>
+        <v>58500</v>
       </c>
       <c r="F8" s="3">
-        <v>98500</v>
+        <v>92700</v>
       </c>
       <c r="G8" s="3">
-        <v>126000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7211</v>
+        <v>7670</v>
       </c>
       <c r="C13" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="D13" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="E13" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F13" s="3">
         <v>18300</v>
       </c>
-      <c r="F13" s="3">
-        <v>19100</v>
-      </c>
       <c r="G13" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>119000</v>
+        <v>110000</v>
       </c>
       <c r="C18" s="3">
-        <v>188000</v>
+        <v>189000</v>
       </c>
       <c r="D18" s="3">
-        <v>278000</v>
+        <v>286000</v>
       </c>
       <c r="E18" s="3">
-        <v>357000</v>
+        <v>365000</v>
       </c>
       <c r="F18" s="3">
-        <v>401000</v>
+        <v>406000</v>
       </c>
       <c r="G18" s="3">
-        <v>468000</v>
+        <v>465000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3190</v>
+        <v>2730</v>
       </c>
       <c r="C23" s="3">
-        <v>4179</v>
+        <v>4506</v>
       </c>
       <c r="D23" s="3">
-        <v>7627</v>
+        <v>7816</v>
       </c>
       <c r="E23" s="3">
-        <v>7827</v>
+        <v>9189</v>
       </c>
       <c r="F23" s="3">
-        <v>8255</v>
+        <v>8094</v>
       </c>
       <c r="G23" s="3">
-        <v>13400</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>125000</v>
+        <v>123000</v>
       </c>
       <c r="C28" s="3">
-        <v>135000</v>
+        <v>151000</v>
       </c>
       <c r="D28" s="3">
-        <v>226000</v>
+        <v>255000</v>
       </c>
       <c r="E28" s="3">
+        <v>277000</v>
+      </c>
+      <c r="F28" s="3">
+        <v>367000</v>
+      </c>
+      <c r="G28" s="3">
         <v>256000</v>
-      </c>
-      <c r="F28" s="3">
-        <v>279000</v>
-      </c>
-      <c r="G28" s="3">
-        <v>253000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>7501</v>
+        <v>6872</v>
       </c>
       <c r="C33" s="3">
-        <v>10100</v>
+        <v>9846</v>
       </c>
       <c r="D33" s="3">
         <v>11700</v>
@@ -786,10 +786,10 @@
         <v>12900</v>
       </c>
       <c r="F33" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="G33" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>115000</v>
+        <v>106000</v>
       </c>
       <c r="C38" s="3">
-        <v>189000</v>
+        <v>192000</v>
       </c>
       <c r="D38" s="3">
-        <v>257000</v>
+        <v>237000</v>
       </c>
       <c r="E38" s="3">
-        <v>305000</v>
+        <v>302000</v>
       </c>
       <c r="F38" s="3">
-        <v>356000</v>
+        <v>359000</v>
       </c>
       <c r="G38" s="3">
-        <v>418000</v>
+        <v>414000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="C3" s="3">
-        <v>1925</v>
+        <v>1899</v>
       </c>
       <c r="D3" s="3">
-        <v>3680</v>
+        <v>3442</v>
       </c>
       <c r="E3" s="3">
-        <v>8596</v>
+        <v>6595</v>
       </c>
       <c r="F3" s="3">
         <v>11100</v>
       </c>
       <c r="G3" s="3">
-        <v>11900</v>
+        <v>20600</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>8082</v>
+        <v>4006</v>
       </c>
       <c r="C8" s="3">
-        <v>12900</v>
+        <v>7069</v>
       </c>
       <c r="D8" s="3">
-        <v>27800</v>
+        <v>16300</v>
       </c>
       <c r="E8" s="3">
-        <v>58500</v>
+        <v>30400</v>
       </c>
       <c r="F8" s="3">
-        <v>92700</v>
+        <v>52200</v>
       </c>
       <c r="G8" s="3">
-        <v>125000</v>
+        <v>94300</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7670</v>
+        <v>2485</v>
       </c>
       <c r="C13" s="3">
-        <v>11900</v>
+        <v>4934</v>
       </c>
       <c r="D13" s="3">
-        <v>16200</v>
+        <v>10400</v>
       </c>
       <c r="E13" s="3">
-        <v>19100</v>
+        <v>16100</v>
       </c>
       <c r="F13" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="G13" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>110000</v>
+        <v>69900</v>
       </c>
       <c r="C18" s="3">
-        <v>189000</v>
+        <v>149000</v>
       </c>
       <c r="D18" s="3">
-        <v>286000</v>
+        <v>248000</v>
       </c>
       <c r="E18" s="3">
-        <v>365000</v>
+        <v>292000</v>
       </c>
       <c r="F18" s="3">
-        <v>406000</v>
+        <v>350000</v>
       </c>
       <c r="G18" s="3">
-        <v>465000</v>
+        <v>416000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2730</v>
+        <v>4015</v>
       </c>
       <c r="C23" s="3">
-        <v>4506</v>
+        <v>4934</v>
       </c>
       <c r="D23" s="3">
-        <v>7816</v>
+        <v>7393</v>
       </c>
       <c r="E23" s="3">
-        <v>9189</v>
+        <v>8761</v>
       </c>
       <c r="F23" s="3">
-        <v>8094</v>
+        <v>10100</v>
       </c>
       <c r="G23" s="3">
-        <v>7440</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>123000</v>
+        <v>125000</v>
       </c>
       <c r="C28" s="3">
-        <v>151000</v>
+        <v>150000</v>
       </c>
       <c r="D28" s="3">
-        <v>255000</v>
+        <v>227000</v>
       </c>
       <c r="E28" s="3">
-        <v>277000</v>
+        <v>266000</v>
       </c>
       <c r="F28" s="3">
-        <v>367000</v>
+        <v>301000</v>
       </c>
       <c r="G28" s="3">
-        <v>256000</v>
+        <v>394000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>6872</v>
+        <v>2015</v>
       </c>
       <c r="C33" s="3">
-        <v>9846</v>
+        <v>3976</v>
       </c>
       <c r="D33" s="3">
-        <v>11700</v>
+        <v>8659</v>
       </c>
       <c r="E33" s="3">
-        <v>12900</v>
+        <v>11500</v>
       </c>
       <c r="F33" s="3">
-        <v>13400</v>
+        <v>11900</v>
       </c>
       <c r="G33" s="3">
-        <v>14200</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>106000</v>
+        <v>68700</v>
       </c>
       <c r="C38" s="3">
-        <v>192000</v>
+        <v>158000</v>
       </c>
       <c r="D38" s="3">
-        <v>237000</v>
+        <v>229000</v>
       </c>
       <c r="E38" s="3">
-        <v>302000</v>
+        <v>285000</v>
       </c>
       <c r="F38" s="3">
-        <v>359000</v>
+        <v>310000</v>
       </c>
       <c r="G38" s="3">
-        <v>414000</v>
+        <v>354000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="C3" s="3">
-        <v>1899</v>
+        <v>1848</v>
       </c>
       <c r="D3" s="3">
-        <v>3442</v>
+        <v>3527</v>
       </c>
       <c r="E3" s="3">
-        <v>6595</v>
+        <v>6720</v>
       </c>
       <c r="F3" s="3">
         <v>11100</v>
       </c>
       <c r="G3" s="3">
-        <v>20600</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="C8" s="3">
-        <v>7069</v>
+        <v>9285</v>
       </c>
       <c r="D8" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="E8" s="3">
-        <v>30400</v>
+        <v>29200</v>
       </c>
       <c r="F8" s="3">
-        <v>52200</v>
+        <v>53700</v>
       </c>
       <c r="G8" s="3">
-        <v>94300</v>
+        <v>85100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>2485</v>
+        <v>2327</v>
       </c>
       <c r="C13" s="3">
-        <v>4934</v>
+        <v>4385</v>
       </c>
       <c r="D13" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="E13" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="F13" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="G13" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>69900</v>
+        <v>53500</v>
       </c>
       <c r="C18" s="3">
-        <v>149000</v>
+        <v>95500</v>
       </c>
       <c r="D18" s="3">
-        <v>248000</v>
+        <v>236000</v>
       </c>
       <c r="E18" s="3">
-        <v>292000</v>
+        <v>287000</v>
       </c>
       <c r="F18" s="3">
-        <v>350000</v>
+        <v>366000</v>
       </c>
       <c r="G18" s="3">
-        <v>416000</v>
+        <v>419000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>4015</v>
+        <v>10200</v>
       </c>
       <c r="C23" s="3">
-        <v>4934</v>
+        <v>18600</v>
       </c>
       <c r="D23" s="3">
-        <v>7393</v>
+        <v>31300</v>
       </c>
       <c r="E23" s="3">
-        <v>8761</v>
+        <v>28800</v>
       </c>
       <c r="F23" s="3">
-        <v>10100</v>
+        <v>34900</v>
       </c>
       <c r="G23" s="3">
-        <v>9514</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>125000</v>
+        <v>462000</v>
       </c>
       <c r="C28" s="3">
-        <v>150000</v>
+        <v>546000</v>
       </c>
       <c r="D28" s="3">
-        <v>227000</v>
+        <v>835000</v>
       </c>
       <c r="E28" s="3">
-        <v>266000</v>
+        <v>895000</v>
       </c>
       <c r="F28" s="3">
-        <v>301000</v>
+        <v>964000</v>
       </c>
       <c r="G28" s="3">
-        <v>394000</v>
+        <v>985000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,19 +774,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>2015</v>
+        <v>2031</v>
       </c>
       <c r="C33" s="3">
-        <v>3976</v>
+        <v>3915</v>
       </c>
       <c r="D33" s="3">
-        <v>8659</v>
+        <v>8605</v>
       </c>
       <c r="E33" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="F33" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="G33" s="3">
         <v>11900</v>
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>68700</v>
+        <v>75500</v>
       </c>
       <c r="C38" s="3">
-        <v>158000</v>
+        <v>159000</v>
       </c>
       <c r="D38" s="3">
-        <v>229000</v>
+        <v>224000</v>
       </c>
       <c r="E38" s="3">
-        <v>285000</v>
+        <v>265000</v>
       </c>
       <c r="F38" s="3">
-        <v>310000</v>
+        <v>301000</v>
       </c>
       <c r="G38" s="3">
-        <v>354000</v>
+        <v>350000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>5885</v>
+        <v>6187</v>
       </c>
       <c r="C3" s="3">
-        <v>11200</v>
+        <v>11900</v>
       </c>
       <c r="D3" s="3">
-        <v>18100</v>
+        <v>21600</v>
       </c>
       <c r="E3" s="3">
-        <v>28400</v>
+        <v>33900</v>
       </c>
       <c r="F3" s="3">
-        <v>30500</v>
+        <v>29900</v>
       </c>
       <c r="G3" s="3">
         <v>25200</v>
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>771.751936</v>
+        <v>810.549248</v>
       </c>
       <c r="C4" s="4">
-        <v>1466.957824</v>
+        <v>1560.281088</v>
       </c>
       <c r="D4" s="4">
-        <v>2375.02464</v>
+        <v>2825.91232</v>
       </c>
       <c r="E4" s="4">
-        <v>3728.736256</v>
+        <v>4436.525056</v>
       </c>
       <c r="F4" s="4">
-        <v>3999.268864</v>
+        <v>3918.528512</v>
       </c>
       <c r="G4" s="4">
-        <v>3304.062976</v>
+        <v>3300.917248</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -514,22 +514,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>168.7</v>
+        <v>161.1</v>
       </c>
       <c r="C5" s="4">
-        <v>174.75</v>
+        <v>166.54</v>
       </c>
       <c r="D5" s="4">
-        <v>218.15</v>
+        <v>181.23</v>
       </c>
       <c r="E5" s="4">
-        <v>255.3</v>
+        <v>233.16</v>
       </c>
       <c r="F5" s="4">
-        <v>503.94</v>
+        <v>504.58</v>
       </c>
       <c r="G5" s="4">
-        <v>1250.33</v>
+        <v>1255.72</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -537,19 +537,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
+        <v>281</v>
+      </c>
+      <c r="C6" s="4">
         <v>289</v>
       </c>
-      <c r="C6" s="4">
-        <v>302</v>
-      </c>
       <c r="D6" s="4">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="E6" s="4">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="F6" s="4">
-        <v>971</v>
+        <v>1004</v>
       </c>
       <c r="G6" s="4">
         <v>2802</v>
@@ -560,22 +560,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C7" s="4">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="D7" s="4">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="E7" s="4">
-        <v>578</v>
+        <v>502</v>
       </c>
       <c r="F7" s="4">
-        <v>1139</v>
+        <v>1156</v>
       </c>
       <c r="G7" s="4">
-        <v>3621</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -614,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>27800</v>
+        <v>26800</v>
       </c>
       <c r="C12" s="3">
-        <v>55400</v>
+        <v>22900</v>
       </c>
       <c r="D12" s="3">
-        <v>107000</v>
+        <v>104000</v>
       </c>
       <c r="E12" s="3">
-        <v>201000</v>
+        <v>200000</v>
       </c>
       <c r="F12" s="3">
-        <v>306000</v>
+        <v>305000</v>
       </c>
       <c r="G12" s="3">
-        <v>296000</v>
+        <v>295000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -637,22 +637,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>114.294784</v>
+        <v>110.10048</v>
       </c>
       <c r="C13" s="4">
-        <v>226.492416</v>
+        <v>93.9524096</v>
       </c>
       <c r="D13" s="4">
-        <v>437.256192</v>
+        <v>425.721856</v>
       </c>
       <c r="E13" s="4">
-        <v>823.13216</v>
+        <v>818.937856</v>
       </c>
       <c r="F13" s="4">
-        <v>1251.999744</v>
+        <v>1247.80544</v>
       </c>
       <c r="G13" s="4">
-        <v>1212.153856</v>
+        <v>1207.959552</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -660,22 +660,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>35.6589</v>
+        <v>37.05023000000001</v>
       </c>
       <c r="C14" s="4">
-        <v>35.71173</v>
+        <v>86.58044000000001</v>
       </c>
       <c r="D14" s="4">
-        <v>36.82257</v>
+        <v>37.84214</v>
       </c>
       <c r="E14" s="4">
-        <v>38.90130000000001</v>
+        <v>39.25583</v>
       </c>
       <c r="F14" s="4">
-        <v>51.47196</v>
+        <v>51.63118</v>
       </c>
       <c r="G14" s="4">
-        <v>106.83795</v>
+        <v>107.60402</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>62.72</v>
+        <v>70.14400000000001</v>
       </c>
       <c r="C15" s="4">
-        <v>64.256</v>
+        <v>218.112</v>
       </c>
       <c r="D15" s="4">
-        <v>69.12</v>
+        <v>70.14400000000001</v>
       </c>
       <c r="E15" s="4">
         <v>78.336</v>
@@ -706,16 +706,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>91.648</v>
+        <v>92.672</v>
       </c>
       <c r="C16" s="4">
-        <v>92.672</v>
+        <v>1335.296</v>
       </c>
       <c r="D16" s="4">
-        <v>95.744</v>
+        <v>96.768</v>
       </c>
       <c r="E16" s="4">
-        <v>102.912</v>
+        <v>101.888</v>
       </c>
       <c r="F16" s="4">
         <v>136.192</v>
@@ -760,22 +760,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>5595</v>
+        <v>4970</v>
       </c>
       <c r="C21" s="3">
-        <v>8865</v>
+        <v>10400</v>
       </c>
       <c r="D21" s="3">
-        <v>13800</v>
+        <v>15900</v>
       </c>
       <c r="E21" s="3">
-        <v>13700</v>
+        <v>20300</v>
       </c>
       <c r="F21" s="3">
-        <v>15800</v>
+        <v>18400</v>
       </c>
       <c r="G21" s="3">
-        <v>15900</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -783,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>732.954624</v>
+        <v>651.165696</v>
       </c>
       <c r="C22" s="4">
-        <v>1161.822208</v>
+        <v>1369.440256</v>
       </c>
       <c r="D22" s="4">
-        <v>1814.03648</v>
+        <v>2088.763392</v>
       </c>
       <c r="E22" s="4">
-        <v>1793.06496</v>
+        <v>2661.285888</v>
       </c>
       <c r="F22" s="4">
-        <v>2075.131904</v>
+        <v>2415.919104</v>
       </c>
       <c r="G22" s="4">
-        <v>2089.811968</v>
+        <v>2431.647744</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -806,22 +806,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>141.25</v>
+        <v>128.73</v>
       </c>
       <c r="C23" s="4">
-        <v>160.22</v>
+        <v>130.18</v>
       </c>
       <c r="D23" s="4">
-        <v>171.41</v>
+        <v>139.3</v>
       </c>
       <c r="E23" s="4">
-        <v>361.72</v>
+        <v>176.76</v>
       </c>
       <c r="F23" s="4">
-        <v>556.85</v>
+        <v>536.75</v>
       </c>
       <c r="G23" s="4">
-        <v>1197.49</v>
+        <v>1319.17</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -832,16 +832,16 @@
         <v>163</v>
       </c>
       <c r="C24" s="4">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D24" s="4">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="E24" s="4">
-        <v>482</v>
+        <v>255</v>
       </c>
       <c r="F24" s="4">
-        <v>873</v>
+        <v>807</v>
       </c>
       <c r="G24" s="4">
         <v>1598</v>
@@ -852,22 +852,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="4">
-        <v>217</v>
+        <v>334</v>
       </c>
       <c r="C25" s="4">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="D25" s="4">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E25" s="4">
-        <v>545</v>
+        <v>318</v>
       </c>
       <c r="F25" s="4">
-        <v>1029</v>
+        <v>963</v>
       </c>
       <c r="G25" s="4">
-        <v>1827</v>
+        <v>25822</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -906,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>51600</v>
+        <v>50100</v>
       </c>
       <c r="C30" s="3">
-        <v>101000</v>
+        <v>104000</v>
       </c>
       <c r="D30" s="3">
-        <v>188000</v>
+        <v>174000</v>
       </c>
       <c r="E30" s="3">
-        <v>265000</v>
+        <v>246000</v>
       </c>
       <c r="F30" s="3">
-        <v>283000</v>
+        <v>337000</v>
       </c>
       <c r="G30" s="3">
-        <v>317000</v>
+        <v>329000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -929,22 +929,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>211.812352</v>
+        <v>205.520896</v>
       </c>
       <c r="C31" s="4">
-        <v>415.236096</v>
+        <v>424.67328</v>
       </c>
       <c r="D31" s="4">
-        <v>767.557632</v>
+        <v>711.983104</v>
       </c>
       <c r="E31" s="4">
-        <v>1083.179008</v>
+        <v>1007.681536</v>
       </c>
       <c r="F31" s="4">
-        <v>1159.725056</v>
+        <v>1380.974592</v>
       </c>
       <c r="G31" s="4">
-        <v>1298.137088</v>
+        <v>1346.371584</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -952,22 +952,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <v>17.33986</v>
+        <v>17.14588</v>
       </c>
       <c r="C32" s="4">
-        <v>17.34603</v>
+        <v>16.05</v>
       </c>
       <c r="D32" s="4">
-        <v>17.7024</v>
+        <v>17.66</v>
       </c>
       <c r="E32" s="4">
-        <v>23.05</v>
+        <v>22.71</v>
       </c>
       <c r="F32" s="4">
-        <v>36.67</v>
+        <v>32.52</v>
       </c>
       <c r="G32" s="4">
-        <v>63.25</v>
+        <v>64.94</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -978,19 +978,19 @@
         <v>20.352</v>
       </c>
       <c r="C33" s="4">
-        <v>22.144</v>
+        <v>20.864</v>
       </c>
       <c r="D33" s="4">
         <v>22.912</v>
       </c>
       <c r="E33" s="4">
-        <v>31.616</v>
+        <v>31.104</v>
       </c>
       <c r="F33" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G33" s="4">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -998,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="4">
-        <v>22.4</v>
+        <v>22.144</v>
       </c>
       <c r="C34" s="4">
-        <v>24.192</v>
+        <v>22.912</v>
       </c>
       <c r="D34" s="4">
-        <v>25.472</v>
+        <v>25.984</v>
       </c>
       <c r="E34" s="4">
-        <v>35.584</v>
+        <v>35.072</v>
       </c>
       <c r="F34" s="4">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G34" s="4">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="C39" s="3">
-        <v>15200</v>
+        <v>18500</v>
       </c>
       <c r="D39" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="E39" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="F39" s="3">
-        <v>19700</v>
+        <v>19300</v>
       </c>
       <c r="G39" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <v>1560.281088</v>
+        <v>1534.066688</v>
       </c>
       <c r="C40" s="4">
-        <v>1988.100096</v>
+        <v>2418.016256</v>
       </c>
       <c r="D40" s="4">
-        <v>2886.729728</v>
+        <v>2863.661056</v>
       </c>
       <c r="E40" s="4">
-        <v>2789.21216</v>
+        <v>2844.786688</v>
       </c>
       <c r="F40" s="4">
-        <v>2584.73984</v>
+        <v>2524.971008</v>
       </c>
       <c r="G40" s="4">
-        <v>2058.354688</v>
+        <v>2025.848832</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1098,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="B41" s="4">
-        <v>83.53</v>
+        <v>84.78</v>
       </c>
       <c r="C41" s="4">
-        <v>115.77</v>
+        <v>102.76</v>
       </c>
       <c r="D41" s="4">
-        <v>175.91</v>
+        <v>170.69</v>
       </c>
       <c r="E41" s="4">
-        <v>353.93</v>
+        <v>340.11</v>
       </c>
       <c r="F41" s="4">
-        <v>781.41</v>
+        <v>801.46</v>
       </c>
       <c r="G41" s="4">
-        <v>2008.25</v>
+        <v>2047.22</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1121,22 +1121,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="4">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C42" s="4">
-        <v>412</v>
+        <v>260</v>
       </c>
       <c r="D42" s="4">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="E42" s="4">
-        <v>1106</v>
+        <v>1090</v>
       </c>
       <c r="F42" s="4">
-        <v>2147</v>
+        <v>2180</v>
       </c>
       <c r="G42" s="4">
-        <v>5407</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1144,22 +1144,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C43" s="4">
-        <v>519</v>
+        <v>330</v>
       </c>
       <c r="D43" s="4">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="E43" s="4">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="F43" s="4">
-        <v>2900</v>
+        <v>2835</v>
       </c>
       <c r="G43" s="4">
-        <v>7046</v>
+        <v>7635</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1198,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>318000</v>
+        <v>338000</v>
       </c>
       <c r="C48" s="3">
-        <v>529000</v>
+        <v>522000</v>
       </c>
       <c r="D48" s="3">
-        <v>679000</v>
+        <v>647000</v>
       </c>
       <c r="E48" s="3">
-        <v>683000</v>
+        <v>707000</v>
       </c>
       <c r="F48" s="3">
-        <v>646000</v>
+        <v>629000</v>
       </c>
       <c r="G48" s="3">
-        <v>537000</v>
+        <v>523000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1221,22 +1221,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>1303.379968</v>
+        <v>1384.12032</v>
       </c>
       <c r="C49" s="4">
-        <v>2165.30944</v>
+        <v>2139.09504</v>
       </c>
       <c r="D49" s="4">
-        <v>2781.872128</v>
+        <v>2650.800128</v>
       </c>
       <c r="E49" s="4">
-        <v>2796.552192</v>
+        <v>2894.06976</v>
       </c>
       <c r="F49" s="4">
-        <v>2644.508672</v>
+        <v>2576.351232</v>
       </c>
       <c r="G49" s="4">
-        <v>2199.912448</v>
+        <v>2142.240768</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>3</v>
       </c>
       <c r="B50" s="4">
-        <v>2.92857</v>
+        <v>2.73849</v>
       </c>
       <c r="C50" s="4">
-        <v>3.44758</v>
+        <v>3.4476</v>
       </c>
       <c r="D50" s="4">
-        <v>5.54321</v>
+        <v>5.48415</v>
       </c>
       <c r="E50" s="4">
-        <v>10.94433</v>
+        <v>10.26839</v>
       </c>
       <c r="F50" s="4">
-        <v>23.40143</v>
+        <v>23.91291</v>
       </c>
       <c r="G50" s="4">
-        <v>58.51288</v>
+        <v>60.15055</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1267,22 +1267,22 @@
         <v>4</v>
       </c>
       <c r="B51" s="4">
-        <v>1.688</v>
+        <v>1.608</v>
       </c>
       <c r="C51" s="4">
-        <v>2.096</v>
+        <v>2.064</v>
       </c>
       <c r="D51" s="4">
+        <v>4.256</v>
+      </c>
+      <c r="E51" s="4">
         <v>4.448</v>
       </c>
-      <c r="E51" s="4">
-        <v>6.176</v>
-      </c>
       <c r="F51" s="4">
-        <v>6.496</v>
+        <v>6.624000000000001</v>
       </c>
       <c r="G51" s="4">
-        <v>13.76</v>
+        <v>13.376</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>5</v>
       </c>
       <c r="B52" s="4">
-        <v>80.384</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="C52" s="4">
-        <v>103.936</v>
+        <v>108.032</v>
       </c>
       <c r="D52" s="4">
-        <v>166.912</v>
+        <v>185.344</v>
       </c>
       <c r="E52" s="4">
-        <v>403.456</v>
+        <v>391.168</v>
       </c>
       <c r="F52" s="4">
-        <v>1089.536</v>
+        <v>1122.304</v>
       </c>
       <c r="G52" s="4">
-        <v>3096.576</v>
+        <v>3162.112</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1344,22 +1344,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>5417</v>
+        <v>4958</v>
       </c>
       <c r="C57" s="3">
-        <v>8641</v>
+        <v>7907</v>
       </c>
       <c r="D57" s="3">
-        <v>12700</v>
+        <v>10000</v>
       </c>
       <c r="E57" s="3">
-        <v>14900</v>
+        <v>13200</v>
       </c>
       <c r="F57" s="3">
-        <v>13600</v>
+        <v>16400</v>
       </c>
       <c r="G57" s="3">
-        <v>14400</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1367,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="4">
-        <v>709.885952</v>
+        <v>650.11712</v>
       </c>
       <c r="C58" s="4">
-        <v>1132.46208</v>
+        <v>1035.993088</v>
       </c>
       <c r="D58" s="4">
-        <v>1661.99296</v>
+        <v>1439.694848</v>
       </c>
       <c r="E58" s="4">
-        <v>1952.448512</v>
+        <v>1733.296128</v>
       </c>
       <c r="F58" s="4">
-        <v>1787.82208</v>
+        <v>2147.483648</v>
       </c>
       <c r="G58" s="4">
-        <v>1892.67968</v>
+        <v>2358.247424</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1390,22 +1390,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>134.6</v>
+        <v>152.7</v>
       </c>
       <c r="C59" s="4">
-        <v>139.2</v>
+        <v>157.85</v>
       </c>
       <c r="D59" s="4">
-        <v>145.88</v>
+        <v>183.41</v>
       </c>
       <c r="E59" s="4">
-        <v>197.17</v>
+        <v>269.3</v>
       </c>
       <c r="F59" s="4">
-        <v>561.77</v>
+        <v>657.91</v>
       </c>
       <c r="G59" s="4">
-        <v>1353.49</v>
+        <v>1357.41</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1416,19 +1416,19 @@
         <v>161</v>
       </c>
       <c r="C60" s="4">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="4">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="E60" s="4">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="F60" s="4">
-        <v>799</v>
+        <v>824</v>
       </c>
       <c r="G60" s="4">
-        <v>1647</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1436,22 +1436,22 @@
         <v>5</v>
       </c>
       <c r="B61" s="4">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C61" s="4">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D61" s="4">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="E61" s="4">
-        <v>289</v>
+        <v>388</v>
       </c>
       <c r="F61" s="4">
-        <v>914</v>
+        <v>938</v>
       </c>
       <c r="G61" s="4">
-        <v>1860</v>
+        <v>26608</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>54400</v>
+        <v>53000</v>
       </c>
       <c r="C66" s="3">
-        <v>114000</v>
+        <v>109000</v>
       </c>
       <c r="D66" s="3">
-        <v>175000</v>
+        <v>172000</v>
       </c>
       <c r="E66" s="3">
-        <v>239000</v>
+        <v>262000</v>
       </c>
       <c r="F66" s="3">
-        <v>362000</v>
+        <v>377000</v>
       </c>
       <c r="G66" s="3">
-        <v>453000</v>
+        <v>456000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="4">
-        <v>223.346688</v>
+        <v>221.249536</v>
       </c>
       <c r="C67" s="4">
-        <v>465.567744</v>
+        <v>444.596224</v>
       </c>
       <c r="D67" s="4">
-        <v>715.128832</v>
+        <v>704.643072</v>
       </c>
       <c r="E67" s="4">
-        <v>980.41856</v>
+        <v>1073.741824</v>
       </c>
       <c r="F67" s="4">
-        <v>1483.73504</v>
+        <v>1542.455296</v>
       </c>
       <c r="G67" s="4">
-        <v>1853.882368</v>
+        <v>1866.46528</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>3</v>
       </c>
       <c r="B68" s="4">
-        <v>16.51381</v>
+        <v>16.51229</v>
       </c>
       <c r="C68" s="4">
-        <v>14.37554</v>
+        <v>15.3</v>
       </c>
       <c r="D68" s="4">
-        <v>17.8526</v>
+        <v>17.55</v>
       </c>
       <c r="E68" s="4">
-        <v>22.45</v>
+        <v>24.04</v>
       </c>
       <c r="F68" s="4">
-        <v>29.7</v>
+        <v>35.48</v>
       </c>
       <c r="G68" s="4">
-        <v>55</v>
+        <v>63.28</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>4</v>
       </c>
       <c r="B69" s="4">
-        <v>19.328</v>
+        <v>19.072</v>
       </c>
       <c r="C69" s="4">
-        <v>19.328</v>
+        <v>19.84</v>
       </c>
       <c r="D69" s="4">
-        <v>22.656</v>
+        <v>22.144</v>
       </c>
       <c r="E69" s="4">
-        <v>30.848</v>
+        <v>33.024</v>
       </c>
       <c r="F69" s="4">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G69" s="4">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>5</v>
       </c>
       <c r="B70" s="4">
-        <v>21.12</v>
+        <v>20.864</v>
       </c>
       <c r="C70" s="4">
-        <v>21.376</v>
+        <v>21.632</v>
       </c>
       <c r="D70" s="4">
-        <v>25.216</v>
+        <v>24.704</v>
       </c>
       <c r="E70" s="4">
-        <v>34.56</v>
+        <v>37.12</v>
       </c>
       <c r="F70" s="4">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G70" s="4">
-        <v>98</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>953</v>
+        <v>6168</v>
       </c>
       <c r="C3" s="3">
-        <v>4633</v>
+        <v>13200</v>
       </c>
       <c r="D3" s="3">
-        <v>3813</v>
+        <v>21200</v>
       </c>
       <c r="E3" s="3">
-        <v>9706</v>
+        <v>27200</v>
       </c>
       <c r="F3" s="3">
-        <v>13300</v>
+        <v>29700</v>
       </c>
       <c r="G3" s="3">
-        <v>21200</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>12100</v>
+        <v>4087</v>
       </c>
       <c r="C8" s="3">
-        <v>20600</v>
+        <v>7991</v>
       </c>
       <c r="D8" s="3">
-        <v>43400</v>
+        <v>16500</v>
       </c>
       <c r="E8" s="3">
-        <v>81700</v>
+        <v>31900</v>
       </c>
       <c r="F8" s="3">
-        <v>147000</v>
+        <v>193000</v>
       </c>
       <c r="G8" s="3">
-        <v>184000</v>
+        <v>194000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7353</v>
+        <v>7816</v>
       </c>
       <c r="C13" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="D13" s="3">
-        <v>16500</v>
+        <v>15200</v>
       </c>
       <c r="E13" s="3">
-        <v>3727</v>
+        <v>18600</v>
       </c>
       <c r="F13" s="3">
-        <v>3593</v>
+        <v>19300</v>
       </c>
       <c r="G13" s="3">
-        <v>3646</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>117000</v>
+        <v>112000</v>
       </c>
       <c r="C18" s="3">
-        <v>194000</v>
+        <v>187000</v>
       </c>
       <c r="D18" s="3">
-        <v>285000</v>
+        <v>287000</v>
       </c>
       <c r="E18" s="3">
-        <v>361000</v>
+        <v>352000</v>
       </c>
       <c r="F18" s="3">
-        <v>438000</v>
+        <v>412000</v>
       </c>
       <c r="G18" s="3">
-        <v>478000</v>
+        <v>458000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3346</v>
+        <v>2694</v>
       </c>
       <c r="C23" s="3">
-        <v>4242</v>
+        <v>4162</v>
       </c>
       <c r="D23" s="3">
-        <v>7447</v>
+        <v>7772</v>
       </c>
       <c r="E23" s="3">
-        <v>7634</v>
+        <v>7984</v>
       </c>
       <c r="F23" s="3">
-        <v>10900</v>
+        <v>6770</v>
       </c>
       <c r="G23" s="3">
-        <v>10800</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>121000</v>
+        <v>98100</v>
       </c>
       <c r="C28" s="3">
-        <v>139000</v>
+        <v>153000</v>
       </c>
       <c r="D28" s="3">
-        <v>254000</v>
+        <v>255000</v>
       </c>
       <c r="E28" s="3">
-        <v>451000</v>
+        <v>237000</v>
       </c>
       <c r="F28" s="3">
-        <v>255000</v>
+        <v>220000</v>
       </c>
       <c r="G28" s="3">
-        <v>701000</v>
+        <v>259000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>7314</v>
+        <v>6692</v>
       </c>
       <c r="C33" s="3">
-        <v>9929</v>
+        <v>8904</v>
       </c>
       <c r="D33" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="E33" s="3">
-        <v>13200</v>
+        <v>12200</v>
       </c>
       <c r="F33" s="3">
-        <v>14400</v>
+        <v>13100</v>
       </c>
       <c r="G33" s="3">
-        <v>14800</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>116000</v>
+        <v>106000</v>
       </c>
       <c r="C38" s="3">
-        <v>197000</v>
+        <v>157000</v>
       </c>
       <c r="D38" s="3">
-        <v>261000</v>
+        <v>272000</v>
       </c>
       <c r="E38" s="3">
-        <v>327000</v>
+        <v>347000</v>
       </c>
       <c r="F38" s="3">
-        <v>419000</v>
+        <v>392000</v>
       </c>
       <c r="G38" s="3">
-        <v>457000</v>
+        <v>404000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/fuse_summary.xlsx
+++ b/rfuse/fuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>6168</v>
+        <v>6564</v>
       </c>
       <c r="C3" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="D3" s="3">
-        <v>21200</v>
+        <v>23100</v>
       </c>
       <c r="E3" s="3">
-        <v>27200</v>
+        <v>30700</v>
       </c>
       <c r="F3" s="3">
-        <v>29700</v>
+        <v>34200</v>
       </c>
       <c r="G3" s="3">
-        <v>30100</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4087</v>
+        <v>3979</v>
       </c>
       <c r="C8" s="3">
-        <v>7991</v>
+        <v>7992</v>
       </c>
       <c r="D8" s="3">
         <v>16500</v>
       </c>
       <c r="E8" s="3">
-        <v>31900</v>
+        <v>31000</v>
       </c>
       <c r="F8" s="3">
-        <v>193000</v>
+        <v>199000</v>
       </c>
       <c r="G8" s="3">
-        <v>194000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7816</v>
+        <v>7876</v>
       </c>
       <c r="C13" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="D13" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="E13" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="F13" s="3">
-        <v>19300</v>
+        <v>18300</v>
       </c>
       <c r="G13" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>112000</v>
+        <v>113000</v>
       </c>
       <c r="C18" s="3">
-        <v>187000</v>
+        <v>199000</v>
       </c>
       <c r="D18" s="3">
-        <v>287000</v>
+        <v>286000</v>
       </c>
       <c r="E18" s="3">
-        <v>352000</v>
+        <v>358000</v>
       </c>
       <c r="F18" s="3">
-        <v>412000</v>
+        <v>403000</v>
       </c>
       <c r="G18" s="3">
-        <v>458000</v>
+        <v>452000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2694</v>
+        <v>2645</v>
       </c>
       <c r="C23" s="3">
-        <v>4162</v>
+        <v>4320</v>
       </c>
       <c r="D23" s="3">
-        <v>7772</v>
+        <v>8846</v>
       </c>
       <c r="E23" s="3">
-        <v>7984</v>
+        <v>8258</v>
       </c>
       <c r="F23" s="3">
-        <v>6770</v>
+        <v>5803</v>
       </c>
       <c r="G23" s="3">
-        <v>8291</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>98100</v>
+        <v>88600</v>
       </c>
       <c r="C28" s="3">
-        <v>153000</v>
+        <v>128000</v>
       </c>
       <c r="D28" s="3">
-        <v>255000</v>
+        <v>268000</v>
       </c>
       <c r="E28" s="3">
-        <v>237000</v>
+        <v>271000</v>
       </c>
       <c r="F28" s="3">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="G28" s="3">
-        <v>259000</v>
+        <v>333000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>6692</v>
+        <v>6826</v>
       </c>
       <c r="C33" s="3">
-        <v>8904</v>
+        <v>9022</v>
       </c>
       <c r="D33" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="E33" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="F33" s="3">
-        <v>13100</v>
+        <v>12600</v>
       </c>
       <c r="G33" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>106000</v>
+        <v>110000</v>
       </c>
       <c r="C38" s="3">
-        <v>157000</v>
+        <v>204000</v>
       </c>
       <c r="D38" s="3">
-        <v>272000</v>
+        <v>274000</v>
       </c>
       <c r="E38" s="3">
-        <v>347000</v>
+        <v>350000</v>
       </c>
       <c r="F38" s="3">
         <v>392000</v>
       </c>
       <c r="G38" s="3">
-        <v>404000</v>
+        <v>392000</v>
       </c>
     </row>
   </sheetData>
